--- a/excel/307 Indicativo - Passato Remoto.xlsx
+++ b/excel/307 Indicativo - Passato Remoto.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Carol\0-Coding\quiz-mini-springboot\excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="30720" windowHeight="15540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="15540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="683" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1485" uniqueCount="667">
   <si>
     <t>类别名称</t>
   </si>
@@ -578,6 +583,66 @@
   </si>
   <si>
     <t>corsero</t>
+  </si>
+  <si>
+    <t>nacqui</t>
+  </si>
+  <si>
+    <t>nascesti</t>
+  </si>
+  <si>
+    <t>nacque</t>
+  </si>
+  <si>
+    <t>nascemmo</t>
+  </si>
+  <si>
+    <t>nasceste</t>
+  </si>
+  <si>
+    <t>nacquero</t>
+  </si>
+  <si>
+    <t>cominciare</t>
+  </si>
+  <si>
+    <t>cominciai</t>
+  </si>
+  <si>
+    <t>cominciasti</t>
+  </si>
+  <si>
+    <t>cominciò</t>
+  </si>
+  <si>
+    <t>cominciammo</t>
+  </si>
+  <si>
+    <t>cominciaste</t>
+  </si>
+  <si>
+    <t>cominciarono</t>
+  </si>
+  <si>
+    <t>parlare</t>
+  </si>
+  <si>
+    <t>parlai</t>
+  </si>
+  <si>
+    <t>parlasti</t>
+  </si>
+  <si>
+    <t>parlò</t>
+  </si>
+  <si>
+    <t>parlammo</t>
+  </si>
+  <si>
+    <t>parlaste</t>
+  </si>
+  <si>
+    <t>parlarono</t>
   </si>
   <si>
     <r>
@@ -585,6 +650,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -595,6 +661,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -602,77 +669,2697 @@
     </r>
   </si>
   <si>
-    <t>nacqui</t>
-  </si>
-  <si>
-    <t>nascesti</t>
-  </si>
-  <si>
-    <t>nacque</t>
-  </si>
-  <si>
-    <t>nascemmo</t>
-  </si>
-  <si>
-    <t>nasceste</t>
-  </si>
-  <si>
-    <t>nacquero</t>
-  </si>
-  <si>
-    <t>cominciare</t>
-  </si>
-  <si>
-    <t>cominciai</t>
-  </si>
-  <si>
-    <t>cominciasti</t>
-  </si>
-  <si>
-    <t>cominciò</t>
-  </si>
-  <si>
-    <t>cominciammo</t>
-  </si>
-  <si>
-    <t>cominciaste</t>
-  </si>
-  <si>
-    <t>cominciarono</t>
-  </si>
-  <si>
-    <t>parlare</t>
-  </si>
-  <si>
-    <t>parlai</t>
-  </si>
-  <si>
-    <t>parlasti</t>
-  </si>
-  <si>
-    <t>parlò</t>
-  </si>
-  <si>
-    <t>parlammo</t>
-  </si>
-  <si>
-    <t>parlaste</t>
-  </si>
-  <si>
-    <t>parlarono</t>
+    <t>sembrare</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>lei/lui</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>sembrò</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>leggere</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>lesse</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>emergere</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>emerse</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>v.intr.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>出现，显出</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Dal buio emersero due loschi individui.黑暗中出现两个形迹可疑的人</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>pubblicare</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>pubblicò</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>pubblicare una notizia发表一条消息</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>lavorare</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>lavorò</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>osservare</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>noi</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>osservammo</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">(1) 观察, 观测; 注视, 监视：
+osservare una ferita 观察伤口
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">(3) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>遵守</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">奉行：
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>osservare la disciplina</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>遵守纪律</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>aumentare</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>aumentò</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.tr 增加 mi hanno aumentato lo stipendio 她们给我涨工资了
+ （人是主语，人来做增加这个动作）
+v.intr 增加 la popolazione è aumentata notevolmente 人口显著增加了（增长的东西是主语）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>aiutare</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>lei/lui</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>aiutò</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>appartenere</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>appartenne</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>v.intr.属于</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> +a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Quel dizionario appartiene alla bibliotece scolastica. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>那本字典是学习图书馆的</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>rappresentare</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>rappresentò</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>象征，体现，表示：
+Il verde rappresenta la speranza. 绿色象征希望。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>trattarsi</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>lei/lui</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>si trattò</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>si tratta di...关于, 涉及, 问题在于</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Si tratta di vita o di morte.这与生死有关</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>eseguire</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>lei/lui</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>eseguì</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>实行，实施：
+eseguire un lavoro (un piano) 实行一项工作 (一个计划)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>rilassarsi</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>si rilassò</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>放松, 松懈; 休息, 轻松一下 Cerca di rilassarti un po’！你尽量放松下</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>sentirsi</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>io</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>si sentì</t>
+  </si>
+  <si>
+    <t>感到，觉得;想要;打电话   Non mi sento di uscire. 我不想出去</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>esistere</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>esistette</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>存在，有 Questo personaggio non esiste.这个人物是不存在的.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>diventare</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>diventò</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Il latte è diventato acido. 牛奶变酸了</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>terminare</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>terminò</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.intr [aus. essere] 结束; 终止, 完毕 Lo spettacolo termina alle cinque. 演出在五点钟结束</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>festeggiare</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>festeggiò</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>庆祝，欢庆：
+festeggiare un anniversario庆祝周年纪念日</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>avvenire</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>avvenne</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">v.intr Che cosa è avvenuto?发生了什么事?
+</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>impedire</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>impedì</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>妨碍 Il maltempo ci ha impedito di partire.恶劣的天气使我们不能启程</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>scomparire</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>scomparve</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.intr 不见, 消失，消逝, 消散:L’aereo scomparve all’orizzonte.飞机消失在地平线上</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>contattare</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>contattò</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ho contattato un cliente 我联系了一个客户</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>conoscere</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>noi</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>conoscemmo</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>studiare</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>voi</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>studiò</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>trovare</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>trovò</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>posizionare</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>posizionò</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>vt. posizionare le telecamere 摆放好摄像头</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>riflettere</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>riflesse</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>vt.反映，反射 L’aumento dei prezzi riflette la difficoltà della produzione. 物价上涨反映出生产上的困难
+vi. （后面+ su） 思考 riflettere sulle conseguenze 考虑后果
+Lasciami riflettere su un po’. 让我想一想</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>collegare</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>collegò</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>连接, 接合：
+collegare due città con una linea ferroviaria 用铁路线把两个城市连接起来</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>programmare</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>programmò</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>vt. 制定计划,规划: programmare la produzione industriale 制定工业生产计划</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>apprezzare</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>apprezzammo</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tutti apprezzano il suo lavoro. 大家都很重视他的工作</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ricevere</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ricevette/ricevé</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>308 Indicativo - Passato Remoto</t>
+  </si>
+  <si>
+    <t>ricevetti/ricevei</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>riuscire</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>riuscì</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>riuscire a fare qlco 成功做某事 Forse riusciremo a terminare il lavoro domani.也许明天我们可以结束工作</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>attrarre</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>attrasse</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>招引, 引诱, 诱惑：
+I manifesti affissi al muro attrassero molti passanti 墙上的广告招引来许多行人</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>loro</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>attrassero</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>condividere</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>condivise</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>分享，分担；共同具有，共同使用：
+condividere gioie e dolori con qlcu. 与某人同甘共苦</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>loro</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>condivisero</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>分享，分担；共同具有，共同使用：
+condividere gioie e dolori con qlcu. 与某人同甘共苦</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>condividere</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>io</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>condivisi</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>分享，分担；共同具有，共同使用：
+condividere gioie e dolori con qlcu. 与某人同甘共苦</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>riportare</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>riportò</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>带回; 拿回：Mi ha riportato a casa in automobile. 她用汽车把我带回了家</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>vedere</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>vide</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>loro</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>videro</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>vedere</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>io</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>vidi</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>incontrare</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>incontrò</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>invitare</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>invitò</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>chiudere</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>chiuse</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>chiusi</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>chiusero</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>arrivare</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>arrivò</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>durare</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>durò</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>La rappresentazione dura due ore. 演出持续了两个小时</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>presentare</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>presentò</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Posso presentarti mia cugina?我可以把我的表妹介绍给你吗？</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>applaudire</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>applaudì</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>vt.为...鼓掌，向...喝彩；欢呼：Gli operi applaudirono a lungo gli attori. 工人向演员们经久不息地鼓掌。
+vi. applaudire a uno spettacolo 为演出喝彩</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>acquistare</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>acqiustò</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>买</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>vincere</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>vinse</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">vincere un incontro di calcio 赢得一场足球比赛
+</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>vincere</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>io</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>vinsi</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>vincere</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>vinsero</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>provare</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>provò</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>vt. Proviamo a entrare.我们试着进去</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>sentire</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>sentì</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>dedicare</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>dedicò</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Il primo capitolo del romanzo è dedicato alla descrizione dell’ambiente.小说的第一章用来描写环境</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>realizzare</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>lei/lui</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>realizzò</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>realizzare la gravità di una situazione 认识到情况的严重性</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> realizzare un sogno 实现梦想
+</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>rompersi</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>si ruppe</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>自反动词：打破，折断，弄碎：
+Il bicchiere cadde e si ruppe in mille pezzi.杯子掉了下来，打得粉碎。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>rompersi</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>mi ruppi</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>rompersi</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>si ruppero</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>pensare</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>pensò</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>mentire</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>mentì</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>v</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>i. Non mentire ！不要说谎！</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>sostituire</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>sostituì</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>sostituire il tappeto logoro con un nuovo用新地毯换下旧地毯</t>
+  </si>
+  <si>
+    <t>reagire</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>reagì</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> sotto anestesia i nervi non reagiscono 
+麻醉状态下神经没有反应</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>desiderare</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>desiderò</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>inseguire</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>inseguì</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>inseguire il nemico 追击敌人</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>frequentare</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>frequentò</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>frequentare un bar 常去酒吧</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Mia figlia frequenta la quinta elementare.我女儿上小学五年级</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>occorrere</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>occorse</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.intr.
+[变位同correre] [aus. essere]
+(1) 需要：
+Ti occorrono almeno due giorni per terminare il lavoro. 至少你要两天才能完成这项工作。
+“Vuoi una mano?” “Grazie, non occorre.” “你要帮忙吗？” “谢谢，不用了。”
+Quanto ti occorre? 你需要多少 (钱) ？
+(2) [impers.] 必须：
+Occorre agire subito. 必须马上行动。
+Occorre far presto. 必须快点。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>occorrere</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>loro</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>occorsero</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>affrontare</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>affrontò</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.tr.
+[io affronto, ecc.]
+(1) 迎击：
+I soldati affrontarono coraggiosamente il nemico.战士英勇迎击敌人。
+(2) 面临；应付，对付：
+affrontare un pericolo冒危险
+affrontare la morte 冒生命危险
+affrontare una situazione difficile应付困难
+(3) 研究，处理：
+affrontare una questione 研究问题
+affrontare un problema spinoso 处理一个棘手问题</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>possedere</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>possedé/possedette</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>v</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>t. (1) 占有，拥有：
+possedere una bicicletta 有一辆自行车
+possedere un podere (un terreno) 拥有一所农庄 (一块土地)
+possedere una villa al mare有一座海边别墅
+(2) 具有 (品质、才能等) ：
+possedere molte qualità有许多优良品质
+possedere uno spiccato senso musicale有一种特殊的音乐感</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>seguire</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>seguì</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vai avanti tu, io ti seguo.你在前面走, 我跟着你</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>inserire</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>inserì</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>插入，放入，嵌入：
+inserire una lettera nella busta 将信装入信封</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>iniziare</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>iniziò</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始;发动, 创始：
+iniziare il lavoro开始工作</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>entrare</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>lei/lui</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>entrò</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>illustrare</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>illustrò</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> (举例、加注) 说明， (用图和例子等) 解释：
+illustrare un’opera con note 注释一部著作</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>guardare</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>lei/lui</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>guardò</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>passare</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>passò</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>costringere</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>costrinse</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>vt.逼迫, 迫使, 强迫 La malattia mi ha costretto a restare a casa.疾病使我不得不待在家里</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>costrinsero</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>vt.逼迫, 迫使, 强迫 La malattia mi ha costretto a restare a casa.疾病使我不得不待在家里</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>spiegare</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>spiegò</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ringraziare</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ringraziò</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>感谢，谢谢：
+ringraziare sinceramente qlcu. 对某人表示衷心感谢</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>raccontare</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>raccontò</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">叙述，讲述；描写，描绘：
+raccontare una storia (una fiaba) 讲故事 (童话)
+</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>partecipare</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>partecipò</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>vi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.后面+a 参加, 参与：
+partecipare a una gara 参加一次比赛</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>prendere</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>io</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>presi</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>prendere</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>prese</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>loro</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>presero</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>accogliere</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>accolsi</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>v</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">t.欢迎；接受, 接纳：
+accogliere una domanda 接受一个要求
+</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>accogliere</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>accolsero</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>v</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">t.欢迎；接受, 接纳：
+accogliere una domanda 接受一个要求
+</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>accogliere</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>io</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>accolse</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>v</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">t.欢迎；接受, 接纳：
+accogliere una domanda 接受一个要求
+</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>bastare</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>bastò</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lo stipendio non gli basta mai.工资对他来说总是不够的</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>sottolineare</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>sottolineò</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>vt. 着重指出, 强调指出,使突出：
+Tengo a sottolineare l’importanza di questo particolare.我想强调指出这个细节的重要</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>raggiungere</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>raggiunse</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>v</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">t. 赶上，抵达，取得
+Recentemente abbiamo raggiunto ottimi risultati. 最近我们取得了很好的成绩。
+</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>raggiungere</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>raggiunsi</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>v</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">t. 赶上，抵达，取得
+Recentemente abbiamo raggiunto ottimi risultati. 最近我们取得了很好的成绩。
+</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>raggiungere</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>raggiunsero</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>v</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">t. 赶上，抵达，取得
+Recentemente abbiamo raggiunto ottimi risultati. 最近我们取得了很好的成绩。
+</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>avvicinarsi</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>si avvicinò</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">v.rifl.
+临近; 接近, 靠近：
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>La nave si avvicina al porto.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>船靠近港口</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>visitare</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>visitò</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>sfruttare</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>sfruttò</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>vt. 开采，剥削，利用 sfruttare la fiducia di qlcu.利用某人的信任</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>augurarsi</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ci augurammo</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>augurarsi
+v.rifl.
+希望：
+Tutti si augurano di visitare Yan’an.大家都希望能访问延安</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>riproporre</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ripropose</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>重新提出 ★★ 再提出 [变位同propórre提出]</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>riproporre</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>riproposi</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>重新提出 ★★ 再提出 [变位同propórre提出]</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>tu</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>riproponesti</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>重新提出 ★★ 再提出 [变位同propórre提出]</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>riproponemmo</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>重新提出 ★★ 再提出 [变位同propórre提出]</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>riproponeste</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ricordare</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ricordò</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>viaggiare</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>viaggiò</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>addormentarsi</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>si addormentò</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">v.rifl.
+(1) 入睡：
+Non si potevano addormentarsi </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>squillare</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>squillò</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.intr.
+[aus. essere 或 avere] (钟、铃等) 鸣, 响：
+Il telefono squilla.电话铃响了</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>suggerire</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>suggerì</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1) 使人想起;启发, 启示, 建议：
+La gravità della situazione suggerisce la massima prudenza. 形势严重万万不可掉以轻心。
+L’idea per il suo nuovo film gli è stata suggerita da un fatto di cronaca.他写这部新影片的想法是从一条社会新闻中得到的启示。
+Ilmedico ha suggerito al paziente di trascorrere un periodo di riposo in montagna. 医生建议病人到山上休息一段时期。
+(2) 提醒, 提示, 暗示：
+suggerire una risposta暗示一个回答</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>immaginare</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>immaginai</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Non puoi immaginare quanto ne sia lieto!你不能想象我是多么的高兴</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>assistere</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>assisté/assistette</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.intr.
+ p.p. assistito] [aus. avere] 出席，参加，参与：（后面+a)
+Varie personalità hanno assistito alla cerimonia di apertura dei giochi sportivi nazionali. 很多知名人士出席了全国运动会开幕式。
+assistere a uno spettacolo 观看演出
+assistere alla lezione 听课
+[II.]
+v.tr.
+帮助，协助；照看：
+assistere un vecchio 帮助一位老年人
+assistere i pazienti 照料病人
+★　常用短语：
+che la fortuna t’assista! 祝你运气好！</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>rivolgere</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>rivolsi</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>v</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">t. 把…转向；把…对准：
+rivolgere attenzione a qlco 把注意力转向某事
+</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>rivolgere</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>rivolsero</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>rivolse</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>scattare</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>scattò</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.intr.
+[aus. avere 或 essere]
+(1) (弹赞等) 突然松开, 弹起：
+La trappola non è scattato. 这块跳板没弹起来。
+(2) [转] 跳起, 跃起; 突然加速, 冲刺 scattare in piedi一跃而起
+scattare all’attacco 跳起来冲锋
+scattare alla partenza (al via) 起跑
+scattare in salita [体] (自行车考中) 突然加速
+Dal prossimo mese scatterà l’aumento di stipendio. [转] 下个月将增加工资。
+(3) [转] 突然发怒:E’ molto nervoso, alla prima osservazione scatta.他非常烦躁, 刚提点意见就跳了起来。
+[II.]
+v.tr.
+拍摄：
+scattare una foto拍照片</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>alzare</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>alzò</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>举起 ★★ 抬高 ★★ 抬 ★★ 举</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>accendere</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>accesi</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1) 点 (火), 点燃：
+accendere la fiaccola 点燃火炬, 点燃火把
+accendere la stufa生炉子
+accendere una sigaretta点烟
+(2) 开;开动：
+accendere la luce开灯</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>accendere</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>accesero</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1) 点 (火), 点燃：
+accendere la fiaccola 点燃火炬, 点燃火把
+accendere la stufa生炉子
+accendere una sigaretta点烟
+(2) 开;开动：
+accendere la luce开灯</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>accese</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>toccarsi</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>si toccò</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>相互触碰</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>sorridere</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>sorrise</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>vi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. 微笑：
+sorridere dolcemente甜蜜地微笑</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>sorridere</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>sorrisi</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>sorrisero</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>occuparsi</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>si occupò</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>occuparsi
+v.rifl.
+(1) 关心，从事于：
+occuparsi degli amici 关朋友，照料朋友
+occuparsi di politica 过问政治
+occuparsi di compravendita 从事买卖
+occuparsi di fisica nucleare 从事于原子物理，搞原子物理
+Non te ne occupare! 你甭管了！你不要过问啦！
+(2) 受雇于，就业：
+S’è occupato come bidello in una scuola. 他在一所学校里做校工</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>accorgersi</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>si accorse</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>v.rifl.
+[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>p.p. accòrto]
+(1) 发觉, 觉察, 注意到：
+Non mi sono accorto di lui e perciò non l’ho salutato.我没有看到他, 所以没有同他打招呼。
+Non mi ero accorto che pioveva.我没有注意到原来下雨了。
+(2) 开始意识到;理会到：
+Finalmente si è accorto dell’importanza del problema. 他终于意识到了问题的重要性。
+Mi accorsi di avere sbagliato.我知道我错了。
+★　常用短语：
+senz’accorgersene (senza accorgersene) 未注意到, 不知不觉地</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>mi accorsi</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>v.rifl.
+[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>p.p. accòrto]
+(1) 发觉, 觉察, 注意到：
+Non mi sono accorto di lui e perciò non l’ho salutato.我没有看到他, 所以没有同他打招呼。
+Non mi ero accorto che pioveva.我没有注意到原来下雨了。
+(2) 开始意识到;理会到：
+Finalmente si è accorto dell’importanza del problema. 他终于意识到了问题的重要性。
+Mi accorsi di avere sbagliato.我知道我错了。
+★　常用短语：
+senz’accorgersene (senza accorgersene) 未注意到, 不知不觉地</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>si accorsero</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>v.rifl.
+[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>p.p. accòrto]
+(1) 发觉, 觉察, 注意到：
+Non mi sono accorto di lui e perciò non l’ho salutato.我没有看到他, 所以没有同他打招呼。
+Non mi ero accorto che pioveva.我没有注意到原来下雨了。
+(2) 开始意识到;理会到：
+Finalmente si è accorto dell’importanza del problema. 他终于意识到了问题的重要性。
+Mi accorsi di avere sbagliato.我知道我错了。
+★　常用短语：
+senz’accorgersene (senza accorgersene) 未注意到, 不知不觉地</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>confessare</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>confessò</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>供认坦白 ★★ 承认 ★★ 坦白 ★★ 忏悔</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ti confesserò i miei sogni
+我向你坦白我的梦</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>continuare</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>continuai</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>intervenire</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>intervenne</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>vi.(后面+in)介入，干涉，出席参加 intervenire in un conflitto 参预冲突</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>intervenire</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>intervenni</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>vi.(后面+in)介入，干涉，出席参加 intervenire in un conflitto 参预冲突</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>intervenire</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>intervennero</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ripensare</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ripensò</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1) 再想一想, 重新思考：
+Ripensaci prima di rispondere.在回答之前 再想一想。
+Pensa e ripensa, si ricordò finalmente il mio indirizzo他想了又想, 终于想起了我的地址。
+Ho ripensato alla tua proposta. 我又想了一下你的建议。
+(2) 重新想起, 重新想到: ripensare alla giovinezza又想起年青时代
+(3) 改变想法:Ci ho ripesato, resto a casa. 我改变了想法, 我留在家里</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>decidere</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>decise</t>
+  </si>
+  <si>
+    <t>(1) 解决, 裁决：
+decidere una questione解决问题
+decidere una controversia裁决诉讼
+(2) 决定, 决意：
+decidere di partire in aereo 决定乘飞机走
+Questa iniziativa va decisa collettivamente.这项创议必须集体决定。
+decidere l’ora della partenza 决定出发时间
+[assol.] Lasciate decidere a lui.你们让他来决定。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>decidere</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>decisi</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>decidere</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>decisero</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1) 解决, 裁决：
+decidere una questione解决问题
+decidere una controversia裁决诉讼
+(2) 决定, 决意：
+decidere di partire in aereo 决定乘飞机走
+Questa iniziativa va decisa collettivamente.这项创议必须集体决定。
+decidere l’ora della partenza 决定出发时间
+[assol.] Lasciate decidere a lui.你们让他来决定。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ospitare</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ospitò</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1) 接待, 招待; 留宿：
+ospitare alcuni amici 招待几个朋友
+Questo asilo d’infanzia ospita due cento bambini.这所幼儿园接纳二百名儿童。
+Puoi ospitarmi per questa notte? 今晚你可以留我住一夜吗？
+(2) 采用, 发表 (文章等) ; 展出 (画幅等) ：
+ospitare un articolo登载一篇文章, 发表一篇文章
+La mostra ospita molte opere dell’Ottocento. 这次画展展出许多十九世纪的作品。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>spingere</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>spinse</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">(1) 推, 推动: spingere un carro 推车
+spingere qlco. (qlcu.) avanti (indietro, dentro, fuori) 把某物 (某人) 向前 (后、里、外) 推
+spingere la macchina a forte velocità让汽车开足马力
+Il ragazzo spingeva i maiali verso il porcile.那孩子把猪赶进猪圈。
+La folla mi spinse lontano dall’ingresso.人群把我从门口挤到老远的地方。
+[assol.] La corrente spinge a riva.水流涌向堤岸。
+[assol.] Non spingete, per favore!别推了!
+(2) 促使, 迫使, 推动：
+Mi spinse a partire.他促使我动身。
+Il bisogno mi spinge a chiederti aiuto.需要迫使我来请你帮忙。
+</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>spingere</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>spinsero</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">(1) 推, 推动: spingere un carro 推车
+spingere qlco. (qlcu.) avanti (indietro, dentro, fuori) 把某物 (某人) 向前 (后、里、外) 推
+spingere la macchina a forte velocità让汽车开足马力
+Il ragazzo spingeva i maiali verso il porcile.那孩子把猪赶进猪圈。
+La folla mi spinse lontano dall’ingresso.人群把我从门口挤到老远的地方。
+[assol.] La corrente spinge a riva.水流涌向堤岸。
+[assol.] Non spingete, per favore!别推了!
+(2) 促使, 迫使, 推动：
+Mi spinse a partire.他促使我动身。
+Il bisogno mi spinge a chiederti aiuto.需要迫使我来请你帮忙。
+</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>spingere</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>spinsi</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>cambiare</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>cambiò</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>candidarsi</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>si candidò</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>candidarsi
+v.rifl.
+自己提名为候选人，参加竞选：
+candidarsi alla carica di sindaco 参加市长的竞选</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>provenire</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>provenni</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>vi.（后面+a) 来自，源自于merce che proviene dall’estero来自国外的货物</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>provenire</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>provenne</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>provennero</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>svolgere</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>svolse</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">(1) 展开,打开, 摊开：
+svolgere un pacco打开包裹
+svolgere una matassa di lana打开一束毛线
+(2) [转] 发挥, 展开：
+svolgere un argomento对一个论点加以发挥
+svolgere il tema di italiano作一篇意大利文作文
+(3) [转] 进行,开展：
+svolgere un lavoro进行一项工作
+svolgere un’attività开展一项活动
+</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>concludere</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>concluse</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>v.tr</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (1) 结束，做完，做成：
+Ha finalmente concluso la sua arringa.他终于结束了高谈阔论。
+Oggi ho faticato molto, ma non ho concluso niente. 今天我忙了一天， 可是什么也没做成。
+(2) 缔结，议定：
+concludere un trattato 缔结一项条约
+concludere un affare 做一笔生意
+(3) 得出...结论：
+Abbiamo concluso che ha troto 我们得出结论他错了。
+(4) [古] [文] 包括，包含
+[II.]
+v.intr.
+[aus. avere] 有说服力：
+un argomento che non conclude 一种没有说服力的论据</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>giungere</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>giunse</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>vi.(后面+a)到达 Siamo giunti in tempo alla stazione.我们及时到了火车站。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>svolsi</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">(1) 展开,打开, 摊开：
+svolgere un pacco打开包裹
+svolgere una matassa di lana打开一束毛线
+(2) [转] 发挥, 展开：
+svolgere un argomento对一个论点加以发挥
+svolgere il tema di italiano作一篇意大利文作文
+(3) [转] 进行,开展：
+svolgere un lavoro进行一项工作
+svolgere un’attività开展一项活动
+</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>concludere</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>conclusi</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>v.tr</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (1) 结束，做完，做成：
+Ha finalmente concluso la sua arringa.他终于结束了高谈阔论。
+Oggi ho faticato molto, ma non ho concluso niente. 今天我忙了一天， 可是什么也没做成。
+(2) 缔结，议定：
+concludere un trattato 缔结一项条约
+concludere un affare 做一笔生意
+(3) 得出...结论：
+Abbiamo concluso che ha troto 我们得出结论他错了。
+(4) [古] [文] 包括，包含
+[II.]
+v.intr.
+[aus. avere] 有说服力：
+un argomento che non conclude 一种没有说服力的论据</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>giungere</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>giunsi</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>vi.(后面+a)到达 Siamo giunti in tempo alla stazione.我们及时到了火车站。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>svolgere</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>svolsero</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>conclusero</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>giungere</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>loro</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>giunsero</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>vi.(后面+a)到达 Siamo giunti in tempo alla stazione.我们及时到了火车站。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>evidenziare</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>evidenziò</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1) 突出，使显明：
+evidenziare una pratica 准备速办一件公事
+evidenziare gli aspetti salienti di una recente scoperta scientifica把一项最新科学发明的主要部分如以突岀
+</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>propo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>r</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>rsi</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>proposi</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">决定 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>mi proposi di non intervenire pi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ù</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> nelle loro discussioni 
+我决定不再介入她们的讨论</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>propo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>r</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>rsi</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>proposero</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">决定 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>mi proposi di non intervenire pi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ù</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> nelle loro discussioni 
+我决定不再介入她们的讨论</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>propose</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>consentire</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>consentì</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>vt.允许 vi.同意（后面+a) i genitori hanno consentito al matrimonio 母父同意了这个婚事</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>muoversi</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>si mosse</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>muòversi
+v.rifl.
+(1) 动; 走动; 活动：
+Sono tanto malato che non posso muovermi.我病得厉害不能动弹。
+Se non ti chiamo, non ti muovere.如果我不叫你, 你就别动。
+muovere dal proprio paese 离乡背井
+muovere da casa 离开家
+Muoviti: è tardi!晚啦, 快点吧！
+(2) [转] 采取行动；行动起来：
+Nessuno si mosse in mio aiuto; 没有人来帮我。
+S’è mosso il direttore in persona.主任亲自过问。
+(3) [转] 感动, 激动
+muovere a pietà同情, 怜悯
+(4) 运动, 运转：
+La luna si muove intorno alla Terra.月亮绕地球转动</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>registrare</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>registrò</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">把电视画面录在磁带上 ★★ 登记 ★★ 登记入住 ★★ 使适合 ★★ 调节 ★★ 调整 ★★ 校准 ★★ 注册 ★★ 记录 ★★ 录音
+</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>controllare</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>voi</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>controllò</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1) 控制: controllare il mercato internazionale del cacao控制国际可可市场
+La macchina è controllata automaticamente.这部机器是自动控制的.
+controllare la situazione控制局势
+(2) 核对, 检查: controllare l’esattezza di un’informazione核实一条消息
+controllare la qualità di un prodotto检查产品的质量
+controllare i freni di una macchina检查汽车的闸
+controllare il passaporto 检查护照
+controllare i conti查账
+controllare i biglietti查票
+controllare la pressione验血压</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>imparare</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>imparaste</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>integrare</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>integrò</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1) 补全，使完全：
+integrare un testo con note 在正文上加上注解 integrare un’alimentazione insufficiente 补足不足的食品
+(2) 使联系，使结合：
+integrare la teoria con la pratica 使理论与实际相结合
+(3) 使并入，使成为一体：
+integrare una minoranza etnica 同化一个少数民族
+</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>permettere</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>permise</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">v.tr.
+允许，准许，许可：
+Il medico non mi permette di uscire. 医生不许我出去。
+</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>permettere</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>p</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ermisi</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">v.tr.
+允许，准许，许可：
+Il medico non mi permette di uscire. 医生不许我出去。
+</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>p</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ermisero</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">v.tr.
+允许，准许，许可：
+Il medico non mi permette di uscire. 医生不许我出去。
+</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -681,105 +3368,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -787,58 +3376,27 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -851,194 +3409,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1061,320 +3433,52 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1632,45 +3736,45 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:E169"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E338"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" topLeftCell="B21" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView tabSelected="1" topLeftCell="A100" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="E124" sqref="E124"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.3333333333333" customWidth="1"/>
+    <col min="1" max="1" width="29.36328125" customWidth="1"/>
     <col min="2" max="2" width="25" customWidth="1"/>
-    <col min="3" max="3" width="8.55555555555556" customWidth="1"/>
+    <col min="3" max="3" width="8.54296875" customWidth="1"/>
     <col min="4" max="4" width="25" customWidth="1"/>
-    <col min="5" max="5" width="65.8888888888889" customWidth="1"/>
+    <col min="5" max="5" width="65.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1684,7 +3788,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -1698,7 +3802,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1712,7 +3816,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -1722,11 +3826,11 @@
       <c r="C5" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1736,11 +3840,11 @@
       <c r="C6" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1750,11 +3854,11 @@
       <c r="C7" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -1764,11 +3868,11 @@
       <c r="C8" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -1778,11 +3882,11 @@
       <c r="C9" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -1792,11 +3896,11 @@
       <c r="C10" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -1806,11 +3910,11 @@
       <c r="C11" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>5</v>
       </c>
@@ -1820,11 +3924,11 @@
       <c r="C12" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>5</v>
       </c>
@@ -1834,11 +3938,11 @@
       <c r="C13" t="s">
         <v>17</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>5</v>
       </c>
@@ -1848,14 +3952,14 @@
       <c r="C14" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E14" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>5</v>
       </c>
@@ -1865,14 +3969,14 @@
       <c r="C15" t="s">
         <v>9</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E15" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>5</v>
       </c>
@@ -1882,14 +3986,14 @@
       <c r="C16" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="1" t="s">
         <v>30</v>
       </c>
       <c r="E16" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>5</v>
       </c>
@@ -1899,14 +4003,14 @@
       <c r="C17" t="s">
         <v>13</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D17" s="1" t="s">
         <v>31</v>
       </c>
       <c r="E17" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>5</v>
       </c>
@@ -1916,14 +4020,14 @@
       <c r="C18" t="s">
         <v>15</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D18" s="1" t="s">
         <v>32</v>
       </c>
       <c r="E18" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>5</v>
       </c>
@@ -1933,14 +4037,14 @@
       <c r="C19" t="s">
         <v>17</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D19" s="1" t="s">
         <v>33</v>
       </c>
       <c r="E19" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>5</v>
       </c>
@@ -1950,11 +4054,11 @@
       <c r="C20" t="s">
         <v>7</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D20" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>5</v>
       </c>
@@ -1964,11 +4068,11 @@
       <c r="C21" t="s">
         <v>9</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D21" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>5</v>
       </c>
@@ -1978,11 +4082,11 @@
       <c r="C22" t="s">
         <v>11</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D22" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>5</v>
       </c>
@@ -1992,11 +4096,11 @@
       <c r="C23" t="s">
         <v>13</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="D23" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>5</v>
       </c>
@@ -2006,11 +4110,11 @@
       <c r="C24" t="s">
         <v>15</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="D24" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>5</v>
       </c>
@@ -2020,11 +4124,11 @@
       <c r="C25" t="s">
         <v>17</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="D25" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>5</v>
       </c>
@@ -2034,11 +4138,11 @@
       <c r="C26" t="s">
         <v>7</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="D26" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>5</v>
       </c>
@@ -2048,11 +4152,11 @@
       <c r="C27" t="s">
         <v>9</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="D27" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>5</v>
       </c>
@@ -2062,11 +4166,11 @@
       <c r="C28" t="s">
         <v>11</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="D28" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>5</v>
       </c>
@@ -2076,11 +4180,11 @@
       <c r="C29" t="s">
         <v>13</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="D29" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>5</v>
       </c>
@@ -2090,11 +4194,11 @@
       <c r="C30" t="s">
         <v>15</v>
       </c>
-      <c r="D30" s="2" t="s">
+      <c r="D30" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>5</v>
       </c>
@@ -2104,11 +4208,11 @@
       <c r="C31" t="s">
         <v>17</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="D31" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>5</v>
       </c>
@@ -2118,11 +4222,11 @@
       <c r="C32" t="s">
         <v>7</v>
       </c>
-      <c r="D32" s="2" t="s">
+      <c r="D32" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>5</v>
       </c>
@@ -2132,11 +4236,11 @@
       <c r="C33" t="s">
         <v>9</v>
       </c>
-      <c r="D33" s="2" t="s">
+      <c r="D33" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>5</v>
       </c>
@@ -2146,11 +4250,11 @@
       <c r="C34" t="s">
         <v>11</v>
       </c>
-      <c r="D34" s="2" t="s">
+      <c r="D34" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>5</v>
       </c>
@@ -2160,11 +4264,11 @@
       <c r="C35" t="s">
         <v>13</v>
       </c>
-      <c r="D35" s="2" t="s">
+      <c r="D35" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>5</v>
       </c>
@@ -2174,11 +4278,11 @@
       <c r="C36" t="s">
         <v>15</v>
       </c>
-      <c r="D36" s="2" t="s">
+      <c r="D36" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>5</v>
       </c>
@@ -2188,11 +4292,11 @@
       <c r="C37" t="s">
         <v>17</v>
       </c>
-      <c r="D37" s="2" t="s">
+      <c r="D37" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>5</v>
       </c>
@@ -2202,11 +4306,11 @@
       <c r="C38" t="s">
         <v>7</v>
       </c>
-      <c r="D38" s="2" t="s">
+      <c r="D38" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>5</v>
       </c>
@@ -2216,11 +4320,11 @@
       <c r="C39" t="s">
         <v>9</v>
       </c>
-      <c r="D39" s="2" t="s">
+      <c r="D39" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>5</v>
       </c>
@@ -2230,11 +4334,11 @@
       <c r="C40" t="s">
         <v>11</v>
       </c>
-      <c r="D40" s="2" t="s">
+      <c r="D40" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>5</v>
       </c>
@@ -2244,11 +4348,11 @@
       <c r="C41" t="s">
         <v>13</v>
       </c>
-      <c r="D41" s="2" t="s">
+      <c r="D41" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>5</v>
       </c>
@@ -2258,11 +4362,11 @@
       <c r="C42" t="s">
         <v>15</v>
       </c>
-      <c r="D42" s="2" t="s">
+      <c r="D42" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>5</v>
       </c>
@@ -2272,11 +4376,11 @@
       <c r="C43" t="s">
         <v>17</v>
       </c>
-      <c r="D43" s="2" t="s">
+      <c r="D43" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>5</v>
       </c>
@@ -2286,11 +4390,11 @@
       <c r="C44" t="s">
         <v>7</v>
       </c>
-      <c r="D44" s="2" t="s">
+      <c r="D44" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>5</v>
       </c>
@@ -2300,11 +4404,11 @@
       <c r="C45" t="s">
         <v>9</v>
       </c>
-      <c r="D45" s="2" t="s">
+      <c r="D45" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>5</v>
       </c>
@@ -2314,11 +4418,11 @@
       <c r="C46" t="s">
         <v>11</v>
       </c>
-      <c r="D46" s="2" t="s">
+      <c r="D46" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>5</v>
       </c>
@@ -2328,11 +4432,11 @@
       <c r="C47" t="s">
         <v>13</v>
       </c>
-      <c r="D47" s="2" t="s">
+      <c r="D47" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>5</v>
       </c>
@@ -2342,11 +4446,11 @@
       <c r="C48" t="s">
         <v>15</v>
       </c>
-      <c r="D48" s="2" t="s">
+      <c r="D48" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>5</v>
       </c>
@@ -2356,11 +4460,11 @@
       <c r="C49" t="s">
         <v>17</v>
       </c>
-      <c r="D49" s="2" t="s">
+      <c r="D49" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>5</v>
       </c>
@@ -2370,11 +4474,11 @@
       <c r="C50" t="s">
         <v>7</v>
       </c>
-      <c r="D50" s="2" t="s">
+      <c r="D50" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>5</v>
       </c>
@@ -2384,11 +4488,11 @@
       <c r="C51" t="s">
         <v>9</v>
       </c>
-      <c r="D51" s="2" t="s">
+      <c r="D51" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>5</v>
       </c>
@@ -2398,11 +4502,11 @@
       <c r="C52" t="s">
         <v>11</v>
       </c>
-      <c r="D52" s="2" t="s">
+      <c r="D52" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>5</v>
       </c>
@@ -2412,11 +4516,11 @@
       <c r="C53" t="s">
         <v>13</v>
       </c>
-      <c r="D53" s="2" t="s">
+      <c r="D53" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>5</v>
       </c>
@@ -2426,11 +4530,11 @@
       <c r="C54" t="s">
         <v>15</v>
       </c>
-      <c r="D54" s="2" t="s">
+      <c r="D54" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>5</v>
       </c>
@@ -2440,11 +4544,11 @@
       <c r="C55" t="s">
         <v>17</v>
       </c>
-      <c r="D55" s="2" t="s">
+      <c r="D55" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>5</v>
       </c>
@@ -2454,11 +4558,11 @@
       <c r="C56" t="s">
         <v>7</v>
       </c>
-      <c r="D56" s="2" t="s">
+      <c r="D56" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>5</v>
       </c>
@@ -2468,11 +4572,11 @@
       <c r="C57" t="s">
         <v>9</v>
       </c>
-      <c r="D57" s="2" t="s">
+      <c r="D57" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>5</v>
       </c>
@@ -2482,11 +4586,11 @@
       <c r="C58" t="s">
         <v>11</v>
       </c>
-      <c r="D58" s="2" t="s">
+      <c r="D58" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>5</v>
       </c>
@@ -2496,11 +4600,11 @@
       <c r="C59" t="s">
         <v>13</v>
       </c>
-      <c r="D59" s="2" t="s">
+      <c r="D59" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>5</v>
       </c>
@@ -2510,11 +4614,11 @@
       <c r="C60" t="s">
         <v>15</v>
       </c>
-      <c r="D60" s="2" t="s">
+      <c r="D60" s="1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>5</v>
       </c>
@@ -2524,11 +4628,11 @@
       <c r="C61" t="s">
         <v>17</v>
       </c>
-      <c r="D61" s="2" t="s">
+      <c r="D61" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>5</v>
       </c>
@@ -2538,11 +4642,11 @@
       <c r="C62" t="s">
         <v>7</v>
       </c>
-      <c r="D62" s="2" t="s">
+      <c r="D62" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>5</v>
       </c>
@@ -2552,11 +4656,11 @@
       <c r="C63" t="s">
         <v>9</v>
       </c>
-      <c r="D63" s="2" t="s">
+      <c r="D63" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>5</v>
       </c>
@@ -2566,11 +4670,11 @@
       <c r="C64" t="s">
         <v>11</v>
       </c>
-      <c r="D64" s="2" t="s">
+      <c r="D64" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="65" spans="1:4">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>5</v>
       </c>
@@ -2580,11 +4684,11 @@
       <c r="C65" t="s">
         <v>13</v>
       </c>
-      <c r="D65" s="2" t="s">
+      <c r="D65" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="66" spans="1:4">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>5</v>
       </c>
@@ -2594,11 +4698,11 @@
       <c r="C66" t="s">
         <v>15</v>
       </c>
-      <c r="D66" s="2" t="s">
+      <c r="D66" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="67" spans="1:4">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>5</v>
       </c>
@@ -2608,11 +4712,11 @@
       <c r="C67" t="s">
         <v>17</v>
       </c>
-      <c r="D67" s="2" t="s">
+      <c r="D67" s="1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="68" spans="1:4">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>5</v>
       </c>
@@ -2622,11 +4726,11 @@
       <c r="C68" t="s">
         <v>7</v>
       </c>
-      <c r="D68" s="2" t="s">
+      <c r="D68" s="1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="69" spans="1:4">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>5</v>
       </c>
@@ -2636,11 +4740,11 @@
       <c r="C69" t="s">
         <v>9</v>
       </c>
-      <c r="D69" s="2" t="s">
+      <c r="D69" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="70" spans="1:4">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>5</v>
       </c>
@@ -2650,11 +4754,11 @@
       <c r="C70" t="s">
         <v>11</v>
       </c>
-      <c r="D70" s="2" t="s">
+      <c r="D70" s="1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="71" spans="1:4">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>5</v>
       </c>
@@ -2664,11 +4768,11 @@
       <c r="C71" t="s">
         <v>13</v>
       </c>
-      <c r="D71" s="2" t="s">
+      <c r="D71" s="1" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="72" spans="1:4">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>5</v>
       </c>
@@ -2678,11 +4782,11 @@
       <c r="C72" t="s">
         <v>15</v>
       </c>
-      <c r="D72" s="2" t="s">
+      <c r="D72" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="73" spans="1:4">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>5</v>
       </c>
@@ -2692,11 +4796,11 @@
       <c r="C73" t="s">
         <v>17</v>
       </c>
-      <c r="D73" s="2" t="s">
+      <c r="D73" s="1" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="74" spans="1:4">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>5</v>
       </c>
@@ -2706,11 +4810,11 @@
       <c r="C74" t="s">
         <v>7</v>
       </c>
-      <c r="D74" s="2" t="s">
+      <c r="D74" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="75" spans="1:4">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>5</v>
       </c>
@@ -2720,11 +4824,11 @@
       <c r="C75" t="s">
         <v>9</v>
       </c>
-      <c r="D75" s="2" t="s">
+      <c r="D75" s="1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="76" spans="1:4">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>5</v>
       </c>
@@ -2734,11 +4838,11 @@
       <c r="C76" t="s">
         <v>11</v>
       </c>
-      <c r="D76" s="2" t="s">
+      <c r="D76" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="77" spans="1:4">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>5</v>
       </c>
@@ -2748,11 +4852,11 @@
       <c r="C77" t="s">
         <v>13</v>
       </c>
-      <c r="D77" s="2" t="s">
+      <c r="D77" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="78" spans="1:4">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>5</v>
       </c>
@@ -2762,11 +4866,11 @@
       <c r="C78" t="s">
         <v>15</v>
       </c>
-      <c r="D78" s="2" t="s">
+      <c r="D78" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="79" spans="1:4">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>5</v>
       </c>
@@ -2776,11 +4880,11 @@
       <c r="C79" t="s">
         <v>17</v>
       </c>
-      <c r="D79" s="2" t="s">
+      <c r="D79" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="80" spans="1:4">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>5</v>
       </c>
@@ -2790,11 +4894,11 @@
       <c r="C80" t="s">
         <v>7</v>
       </c>
-      <c r="D80" s="2" t="s">
+      <c r="D80" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="81" spans="1:4">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>5</v>
       </c>
@@ -2808,7 +4912,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="82" spans="1:4">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>5</v>
       </c>
@@ -2818,11 +4922,11 @@
       <c r="C82" t="s">
         <v>11</v>
       </c>
-      <c r="D82" s="2" t="s">
+      <c r="D82" s="1" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="83" spans="1:4">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>5</v>
       </c>
@@ -2832,11 +4936,11 @@
       <c r="C83" t="s">
         <v>13</v>
       </c>
-      <c r="D83" s="2" t="s">
+      <c r="D83" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="84" spans="1:4">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>5</v>
       </c>
@@ -2846,11 +4950,11 @@
       <c r="C84" t="s">
         <v>15</v>
       </c>
-      <c r="D84" s="2" t="s">
+      <c r="D84" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="85" spans="1:4">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>5</v>
       </c>
@@ -2860,11 +4964,11 @@
       <c r="C85" t="s">
         <v>17</v>
       </c>
-      <c r="D85" s="2" t="s">
+      <c r="D85" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="86" spans="1:4">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>5</v>
       </c>
@@ -2874,11 +4978,11 @@
       <c r="C86" t="s">
         <v>7</v>
       </c>
-      <c r="D86" s="2" t="s">
+      <c r="D86" s="1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="87" spans="1:4">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>5</v>
       </c>
@@ -2888,11 +4992,11 @@
       <c r="C87" t="s">
         <v>9</v>
       </c>
-      <c r="D87" s="2" t="s">
+      <c r="D87" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="88" spans="1:4">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>5</v>
       </c>
@@ -2902,11 +5006,11 @@
       <c r="C88" t="s">
         <v>11</v>
       </c>
-      <c r="D88" s="2" t="s">
+      <c r="D88" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="89" spans="1:4">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>5</v>
       </c>
@@ -2916,11 +5020,11 @@
       <c r="C89" t="s">
         <v>13</v>
       </c>
-      <c r="D89" s="2" t="s">
+      <c r="D89" s="1" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="90" spans="1:4">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>5</v>
       </c>
@@ -2930,11 +5034,11 @@
       <c r="C90" t="s">
         <v>15</v>
       </c>
-      <c r="D90" s="2" t="s">
+      <c r="D90" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="91" spans="1:4">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>5</v>
       </c>
@@ -2944,11 +5048,11 @@
       <c r="C91" t="s">
         <v>17</v>
       </c>
-      <c r="D91" s="2" t="s">
+      <c r="D91" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="92" spans="1:4">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>5</v>
       </c>
@@ -2958,11 +5062,11 @@
       <c r="C92" t="s">
         <v>7</v>
       </c>
-      <c r="D92" s="2" t="s">
+      <c r="D92" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="93" spans="1:4">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>5</v>
       </c>
@@ -2972,11 +5076,11 @@
       <c r="C93" t="s">
         <v>9</v>
       </c>
-      <c r="D93" s="2" t="s">
+      <c r="D93" s="1" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="94" spans="1:4">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>5</v>
       </c>
@@ -2986,11 +5090,11 @@
       <c r="C94" t="s">
         <v>11</v>
       </c>
-      <c r="D94" s="2" t="s">
+      <c r="D94" s="1" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="95" spans="1:4">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>5</v>
       </c>
@@ -3000,11 +5104,11 @@
       <c r="C95" t="s">
         <v>13</v>
       </c>
-      <c r="D95" s="2" t="s">
+      <c r="D95" s="1" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="96" spans="1:4">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>5</v>
       </c>
@@ -3014,11 +5118,11 @@
       <c r="C96" t="s">
         <v>15</v>
       </c>
-      <c r="D96" s="2" t="s">
+      <c r="D96" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="97" spans="1:4">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>5</v>
       </c>
@@ -3028,11 +5132,11 @@
       <c r="C97" t="s">
         <v>17</v>
       </c>
-      <c r="D97" s="2" t="s">
+      <c r="D97" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="98" spans="1:4">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>5</v>
       </c>
@@ -3042,11 +5146,11 @@
       <c r="C98" t="s">
         <v>7</v>
       </c>
-      <c r="D98" s="2" t="s">
+      <c r="D98" s="1" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="99" spans="1:4">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>5</v>
       </c>
@@ -3056,11 +5160,11 @@
       <c r="C99" t="s">
         <v>9</v>
       </c>
-      <c r="D99" s="2" t="s">
+      <c r="D99" s="1" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="100" spans="1:4">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>5</v>
       </c>
@@ -3070,11 +5174,11 @@
       <c r="C100" t="s">
         <v>11</v>
       </c>
-      <c r="D100" s="2" t="s">
+      <c r="D100" s="1" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="101" spans="1:4">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>5</v>
       </c>
@@ -3084,11 +5188,11 @@
       <c r="C101" t="s">
         <v>13</v>
       </c>
-      <c r="D101" s="2" t="s">
+      <c r="D101" s="1" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="102" spans="1:4">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>5</v>
       </c>
@@ -3098,11 +5202,11 @@
       <c r="C102" t="s">
         <v>15</v>
       </c>
-      <c r="D102" s="2" t="s">
+      <c r="D102" s="1" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="103" spans="1:4">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>5</v>
       </c>
@@ -3112,11 +5216,11 @@
       <c r="C103" t="s">
         <v>17</v>
       </c>
-      <c r="D103" s="2" t="s">
+      <c r="D103" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="104" spans="1:4">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>5</v>
       </c>
@@ -3126,11 +5230,11 @@
       <c r="C104" t="s">
         <v>7</v>
       </c>
-      <c r="D104" s="2" t="s">
+      <c r="D104" s="1" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="105" spans="1:4">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>5</v>
       </c>
@@ -3140,11 +5244,11 @@
       <c r="C105" t="s">
         <v>9</v>
       </c>
-      <c r="D105" s="2" t="s">
+      <c r="D105" s="1" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="106" spans="1:4">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>5</v>
       </c>
@@ -3154,11 +5258,11 @@
       <c r="C106" t="s">
         <v>11</v>
       </c>
-      <c r="D106" s="2" t="s">
+      <c r="D106" s="1" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="107" spans="1:4">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>5</v>
       </c>
@@ -3168,11 +5272,11 @@
       <c r="C107" t="s">
         <v>13</v>
       </c>
-      <c r="D107" s="2" t="s">
+      <c r="D107" s="1" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="108" spans="1:4">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>5</v>
       </c>
@@ -3182,11 +5286,11 @@
       <c r="C108" t="s">
         <v>15</v>
       </c>
-      <c r="D108" s="2" t="s">
+      <c r="D108" s="1" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="109" spans="1:4">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>5</v>
       </c>
@@ -3196,11 +5300,11 @@
       <c r="C109" t="s">
         <v>17</v>
       </c>
-      <c r="D109" s="2" t="s">
+      <c r="D109" s="1" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="110" spans="1:4">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>5</v>
       </c>
@@ -3210,11 +5314,11 @@
       <c r="C110" t="s">
         <v>7</v>
       </c>
-      <c r="D110" s="2" t="s">
+      <c r="D110" s="1" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="111" spans="1:4">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>5</v>
       </c>
@@ -3224,11 +5328,11 @@
       <c r="C111" t="s">
         <v>9</v>
       </c>
-      <c r="D111" s="2" t="s">
+      <c r="D111" s="1" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="112" spans="1:4">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>5</v>
       </c>
@@ -3238,11 +5342,11 @@
       <c r="C112" t="s">
         <v>11</v>
       </c>
-      <c r="D112" s="2" t="s">
+      <c r="D112" s="1" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="113" spans="1:4">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>5</v>
       </c>
@@ -3252,11 +5356,11 @@
       <c r="C113" t="s">
         <v>13</v>
       </c>
-      <c r="D113" s="2" t="s">
+      <c r="D113" s="1" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="114" spans="1:4">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>5</v>
       </c>
@@ -3266,11 +5370,11 @@
       <c r="C114" t="s">
         <v>15</v>
       </c>
-      <c r="D114" s="2" t="s">
+      <c r="D114" s="1" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="115" spans="1:4">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>5</v>
       </c>
@@ -3280,11 +5384,11 @@
       <c r="C115" t="s">
         <v>17</v>
       </c>
-      <c r="D115" s="2" t="s">
+      <c r="D115" s="1" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="116" spans="1:4">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>5</v>
       </c>
@@ -3294,11 +5398,11 @@
       <c r="C116" t="s">
         <v>7</v>
       </c>
-      <c r="D116" s="2" t="s">
+      <c r="D116" s="1" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="117" spans="1:4">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>5</v>
       </c>
@@ -3308,11 +5412,11 @@
       <c r="C117" t="s">
         <v>9</v>
       </c>
-      <c r="D117" s="2" t="s">
+      <c r="D117" s="1" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="118" spans="1:4">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>5</v>
       </c>
@@ -3322,11 +5426,11 @@
       <c r="C118" t="s">
         <v>11</v>
       </c>
-      <c r="D118" s="2" t="s">
+      <c r="D118" s="1" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="119" spans="1:4">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>5</v>
       </c>
@@ -3336,11 +5440,11 @@
       <c r="C119" t="s">
         <v>13</v>
       </c>
-      <c r="D119" s="2" t="s">
+      <c r="D119" s="1" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="120" spans="1:4">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>5</v>
       </c>
@@ -3350,11 +5454,11 @@
       <c r="C120" t="s">
         <v>15</v>
       </c>
-      <c r="D120" s="2" t="s">
+      <c r="D120" s="1" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="121" spans="1:4">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>5</v>
       </c>
@@ -3364,11 +5468,11 @@
       <c r="C121" t="s">
         <v>17</v>
       </c>
-      <c r="D121" s="2" t="s">
+      <c r="D121" s="1" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="122" spans="1:4">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>5</v>
       </c>
@@ -3378,11 +5482,11 @@
       <c r="C122" t="s">
         <v>7</v>
       </c>
-      <c r="D122" s="2" t="s">
+      <c r="D122" s="1" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="123" spans="1:4">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>5</v>
       </c>
@@ -3392,11 +5496,11 @@
       <c r="C123" t="s">
         <v>9</v>
       </c>
-      <c r="D123" s="2" t="s">
+      <c r="D123" s="1" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="124" spans="1:4">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>5</v>
       </c>
@@ -3406,11 +5510,11 @@
       <c r="C124" t="s">
         <v>11</v>
       </c>
-      <c r="D124" s="2" t="s">
+      <c r="D124" s="1" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="125" spans="1:4">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>5</v>
       </c>
@@ -3420,11 +5524,11 @@
       <c r="C125" t="s">
         <v>13</v>
       </c>
-      <c r="D125" s="2" t="s">
+      <c r="D125" s="1" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="126" spans="1:4">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>5</v>
       </c>
@@ -3434,11 +5538,11 @@
       <c r="C126" t="s">
         <v>15</v>
       </c>
-      <c r="D126" s="2" t="s">
+      <c r="D126" s="1" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="127" spans="1:4">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>5</v>
       </c>
@@ -3448,11 +5552,11 @@
       <c r="C127" t="s">
         <v>17</v>
       </c>
-      <c r="D127" s="2" t="s">
+      <c r="D127" s="1" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="128" spans="1:4">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>5</v>
       </c>
@@ -3462,11 +5566,11 @@
       <c r="C128" t="s">
         <v>7</v>
       </c>
-      <c r="D128" s="2" t="s">
+      <c r="D128" s="1" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="129" spans="1:4">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>5</v>
       </c>
@@ -3476,11 +5580,11 @@
       <c r="C129" t="s">
         <v>9</v>
       </c>
-      <c r="D129" s="2" t="s">
+      <c r="D129" s="1" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="130" spans="1:4">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>5</v>
       </c>
@@ -3490,11 +5594,11 @@
       <c r="C130" t="s">
         <v>11</v>
       </c>
-      <c r="D130" s="2" t="s">
+      <c r="D130" s="1" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="131" spans="1:4">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>5</v>
       </c>
@@ -3504,11 +5608,11 @@
       <c r="C131" t="s">
         <v>13</v>
       </c>
-      <c r="D131" s="2" t="s">
+      <c r="D131" s="1" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="132" spans="1:4">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>5</v>
       </c>
@@ -3518,11 +5622,11 @@
       <c r="C132" t="s">
         <v>15</v>
       </c>
-      <c r="D132" s="2" t="s">
+      <c r="D132" s="1" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="133" spans="1:4">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>5</v>
       </c>
@@ -3532,11 +5636,11 @@
       <c r="C133" t="s">
         <v>17</v>
       </c>
-      <c r="D133" s="2" t="s">
+      <c r="D133" s="1" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="134" spans="1:4">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>5</v>
       </c>
@@ -3546,11 +5650,11 @@
       <c r="C134" t="s">
         <v>7</v>
       </c>
-      <c r="D134" s="2" t="s">
+      <c r="D134" s="1" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="135" spans="1:4">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>5</v>
       </c>
@@ -3560,11 +5664,11 @@
       <c r="C135" t="s">
         <v>9</v>
       </c>
-      <c r="D135" s="2" t="s">
+      <c r="D135" s="1" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="136" spans="1:4">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>5</v>
       </c>
@@ -3574,11 +5678,11 @@
       <c r="C136" t="s">
         <v>11</v>
       </c>
-      <c r="D136" s="2" t="s">
+      <c r="D136" s="1" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="137" spans="1:4">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>5</v>
       </c>
@@ -3588,11 +5692,11 @@
       <c r="C137" t="s">
         <v>13</v>
       </c>
-      <c r="D137" s="2" t="s">
+      <c r="D137" s="1" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="138" spans="1:4">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>5</v>
       </c>
@@ -3602,11 +5706,11 @@
       <c r="C138" t="s">
         <v>15</v>
       </c>
-      <c r="D138" s="2" t="s">
+      <c r="D138" s="1" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="139" spans="1:4">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>5</v>
       </c>
@@ -3616,11 +5720,11 @@
       <c r="C139" t="s">
         <v>17</v>
       </c>
-      <c r="D139" s="2" t="s">
+      <c r="D139" s="1" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="140" spans="1:4">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>5</v>
       </c>
@@ -3630,11 +5734,11 @@
       <c r="C140" t="s">
         <v>7</v>
       </c>
-      <c r="D140" s="2" t="s">
+      <c r="D140" s="1" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="141" spans="1:4">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>5</v>
       </c>
@@ -3644,11 +5748,11 @@
       <c r="C141" t="s">
         <v>9</v>
       </c>
-      <c r="D141" s="2" t="s">
+      <c r="D141" s="1" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="142" spans="1:4">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>5</v>
       </c>
@@ -3658,11 +5762,11 @@
       <c r="C142" t="s">
         <v>11</v>
       </c>
-      <c r="D142" s="2" t="s">
+      <c r="D142" s="1" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="143" spans="1:4">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>5</v>
       </c>
@@ -3672,11 +5776,11 @@
       <c r="C143" t="s">
         <v>13</v>
       </c>
-      <c r="D143" s="2" t="s">
+      <c r="D143" s="1" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="144" spans="1:4">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>5</v>
       </c>
@@ -3686,11 +5790,11 @@
       <c r="C144" t="s">
         <v>15</v>
       </c>
-      <c r="D144" s="2" t="s">
+      <c r="D144" s="1" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="145" spans="1:4">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>5</v>
       </c>
@@ -3700,11 +5804,11 @@
       <c r="C145" t="s">
         <v>17</v>
       </c>
-      <c r="D145" s="2" t="s">
+      <c r="D145" s="1" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="146" spans="1:4">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>5</v>
       </c>
@@ -3714,11 +5818,11 @@
       <c r="C146" t="s">
         <v>7</v>
       </c>
-      <c r="D146" s="2" t="s">
+      <c r="D146" s="1" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="147" spans="1:4">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>5</v>
       </c>
@@ -3728,11 +5832,11 @@
       <c r="C147" t="s">
         <v>9</v>
       </c>
-      <c r="D147" s="2" t="s">
+      <c r="D147" s="1" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="148" spans="1:4">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>5</v>
       </c>
@@ -3742,11 +5846,11 @@
       <c r="C148" t="s">
         <v>11</v>
       </c>
-      <c r="D148" s="2" t="s">
+      <c r="D148" s="1" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="149" spans="1:4">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>5</v>
       </c>
@@ -3756,11 +5860,11 @@
       <c r="C149" t="s">
         <v>13</v>
       </c>
-      <c r="D149" s="2" t="s">
+      <c r="D149" s="1" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="150" spans="1:4">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>5</v>
       </c>
@@ -3770,11 +5874,11 @@
       <c r="C150" t="s">
         <v>15</v>
       </c>
-      <c r="D150" s="2" t="s">
+      <c r="D150" s="1" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="151" spans="1:4">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>5</v>
       </c>
@@ -3784,265 +5888,3052 @@
       <c r="C151" t="s">
         <v>17</v>
       </c>
-      <c r="D151" s="2" t="s">
+      <c r="D151" s="1" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="152" spans="1:4">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>5</v>
       </c>
       <c r="B152" t="s">
-        <v>188</v>
+        <v>208</v>
       </c>
       <c r="C152" t="s">
         <v>7</v>
       </c>
       <c r="D152" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>5</v>
       </c>
       <c r="B153" t="s">
-        <v>188</v>
+        <v>208</v>
       </c>
       <c r="C153" t="s">
         <v>9</v>
       </c>
       <c r="D153" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>5</v>
       </c>
       <c r="B154" t="s">
-        <v>188</v>
+        <v>208</v>
       </c>
       <c r="C154" t="s">
         <v>11</v>
       </c>
       <c r="D154" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>5</v>
       </c>
       <c r="B155" t="s">
-        <v>188</v>
+        <v>208</v>
       </c>
       <c r="C155" t="s">
         <v>13</v>
       </c>
       <c r="D155" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>5</v>
       </c>
       <c r="B156" t="s">
-        <v>188</v>
+        <v>208</v>
       </c>
       <c r="C156" t="s">
         <v>15</v>
       </c>
       <c r="D156" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>5</v>
       </c>
       <c r="B157" t="s">
-        <v>188</v>
+        <v>208</v>
       </c>
       <c r="C157" t="s">
         <v>17</v>
       </c>
       <c r="D157" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>5</v>
+      </c>
+      <c r="B158" t="s">
         <v>194</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4">
-      <c r="A158" t="s">
-        <v>5</v>
-      </c>
-      <c r="B158" t="s">
-        <v>195</v>
       </c>
       <c r="C158" t="s">
         <v>7</v>
       </c>
       <c r="D158" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>5</v>
       </c>
       <c r="B159" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C159" t="s">
         <v>9</v>
       </c>
       <c r="D159" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>5</v>
       </c>
       <c r="B160" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C160" t="s">
         <v>11</v>
       </c>
       <c r="D160" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>5</v>
       </c>
       <c r="B161" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C161" t="s">
         <v>13</v>
       </c>
       <c r="D161" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>5</v>
       </c>
       <c r="B162" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C162" t="s">
         <v>15</v>
       </c>
       <c r="D162" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>5</v>
       </c>
       <c r="B163" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C163" t="s">
         <v>17</v>
       </c>
       <c r="D163" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>5</v>
+      </c>
+      <c r="B164" t="s">
         <v>201</v>
-      </c>
-    </row>
-    <row r="164" spans="1:4">
-      <c r="A164" t="s">
-        <v>5</v>
-      </c>
-      <c r="B164" t="s">
-        <v>202</v>
       </c>
       <c r="C164" t="s">
         <v>7</v>
       </c>
       <c r="D164" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>5</v>
       </c>
       <c r="B165" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C165" t="s">
         <v>9</v>
       </c>
       <c r="D165" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>5</v>
       </c>
       <c r="B166" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C166" t="s">
         <v>11</v>
       </c>
       <c r="D166" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>5</v>
       </c>
       <c r="B167" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C167" t="s">
         <v>13</v>
       </c>
       <c r="D167" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>5</v>
       </c>
       <c r="B168" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C168" t="s">
         <v>15</v>
       </c>
       <c r="D168" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="169" spans="1:4">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>5</v>
       </c>
       <c r="B169" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C169" t="s">
         <v>17</v>
       </c>
       <c r="D169" t="s">
-        <v>208</v>
+        <v>207</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>5</v>
+      </c>
+      <c r="B170" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="C170" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="D170" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="E170" s="5"/>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>5</v>
+      </c>
+      <c r="B171" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="C171" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="D171" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="E171" s="5"/>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>5</v>
+      </c>
+      <c r="B172" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="C172" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="D172" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="E172" s="4" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>5</v>
+      </c>
+      <c r="B173" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="C173" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="D173" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="E173" s="4" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>5</v>
+      </c>
+      <c r="B174" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="C174" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="D174" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="E174" s="5"/>
+    </row>
+    <row r="175" spans="1:5" ht="56" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>5</v>
+      </c>
+      <c r="B175" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="C175" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="D175" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="E175" s="6" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" ht="56" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>5</v>
+      </c>
+      <c r="B176" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="C176" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="D176" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="E176" s="6" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>5</v>
+      </c>
+      <c r="B177" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="C177" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="D177" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="E177" s="5"/>
+    </row>
+    <row r="178" spans="1:5" ht="42" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>5</v>
+      </c>
+      <c r="B178" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="C178" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="D178" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="E178" s="6" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" ht="28" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>5</v>
+      </c>
+      <c r="B179" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="C179" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="D179" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="E179" s="7" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" ht="28" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>5</v>
+      </c>
+      <c r="B180" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="C180" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="D180" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="E180" s="7" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" ht="28" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>5</v>
+      </c>
+      <c r="B181" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="C181" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="D181" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="E181" s="6" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" ht="28" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>5</v>
+      </c>
+      <c r="B182" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="C182" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="D182" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="E182" s="6" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>5</v>
+      </c>
+      <c r="B183" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="C183" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="D183" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="E183" s="6" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>5</v>
+      </c>
+      <c r="B184" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="C184" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="D184" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="E184" s="6" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>5</v>
+      </c>
+      <c r="B185" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="C185" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="D185" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="E185" s="6" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" ht="28" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>5</v>
+      </c>
+      <c r="B186" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="C186" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="D186" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="E186" s="6" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" ht="28" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>5</v>
+      </c>
+      <c r="B187" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="C187" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="D187" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="E187" s="6" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" ht="28" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>5</v>
+      </c>
+      <c r="B188" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="C188" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="D188" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="E188" s="6" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" ht="28" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>5</v>
+      </c>
+      <c r="B189" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="C189" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="D189" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="E189" s="6" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" ht="28" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>5</v>
+      </c>
+      <c r="B190" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="C190" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="D190" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="E190" s="6" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>5</v>
+      </c>
+      <c r="B191" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="C191" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="D191" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="E191" s="6" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>5</v>
+      </c>
+      <c r="B192" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="C192" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="D192" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="E192" s="5"/>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>5</v>
+      </c>
+      <c r="B193" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="C193" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="D193" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="E193" s="5"/>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>5</v>
+      </c>
+      <c r="B194" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="C194" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="D194" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="E194" s="5"/>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>5</v>
+      </c>
+      <c r="B195" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="C195" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="D195" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="E195" s="4" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" ht="56" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>5</v>
+      </c>
+      <c r="B196" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="C196" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="D196" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="E196" s="6" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" ht="42" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>5</v>
+      </c>
+      <c r="B197" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="C197" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="D197" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="E197" s="6" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>5</v>
+      </c>
+      <c r="B198" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="C198" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="D198" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="E198" s="4" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>5</v>
+      </c>
+      <c r="B199" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="C199" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="D199" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="E199" s="4" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>5</v>
+      </c>
+      <c r="B200" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="C200" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="D200" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="E200" s="5"/>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>302</v>
+      </c>
+      <c r="B201" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="C201" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="D201" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="E201" s="5"/>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>5</v>
+      </c>
+      <c r="B202" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="C202" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="D202" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="E202" s="4" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" ht="42" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>5</v>
+      </c>
+      <c r="B203" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="C203" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="D203" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="E203" s="6" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>5</v>
+      </c>
+      <c r="B204" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="C204" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="D204" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="E204" s="6"/>
+    </row>
+    <row r="205" spans="1:5" ht="28" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>5</v>
+      </c>
+      <c r="B205" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="C205" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="D205" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="E205" s="6" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" ht="28" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>5</v>
+      </c>
+      <c r="B206" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="C206" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="D206" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="E206" s="6" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" ht="28" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>5</v>
+      </c>
+      <c r="B207" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="C207" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="D207" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="E207" s="6" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>5</v>
+      </c>
+      <c r="B208" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="C208" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="D208" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="E208" s="4" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>5</v>
+      </c>
+      <c r="B209" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="C209" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="D209" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="E209" s="5"/>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>5</v>
+      </c>
+      <c r="B210" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="C210" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="D210" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="E210" s="5"/>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>5</v>
+      </c>
+      <c r="B211" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="C211" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="D211" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="E211" s="5"/>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>5</v>
+      </c>
+      <c r="B212" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="C212" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="D212" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="E212" s="5"/>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>5</v>
+      </c>
+      <c r="B213" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="C213" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="D213" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="E213" s="5"/>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>5</v>
+      </c>
+      <c r="B214" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="C214" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="D214" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="E214" s="5"/>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>5</v>
+      </c>
+      <c r="B215" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="C215" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="D215" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="E215" s="5"/>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>5</v>
+      </c>
+      <c r="B216" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="C216" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="D216" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="E216" s="5"/>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>5</v>
+      </c>
+      <c r="B217" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="C217" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="D217" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="E217" s="5"/>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>5</v>
+      </c>
+      <c r="B218" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="C218" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="D218" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="E218" s="4" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>5</v>
+      </c>
+      <c r="B219" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="C219" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="D219" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="E219" s="4" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" ht="42" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>5</v>
+      </c>
+      <c r="B220" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="C220" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="D220" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="E220" s="6" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>5</v>
+      </c>
+      <c r="B221" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="C221" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="D221" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="E221" s="4" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" ht="28" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>5</v>
+      </c>
+      <c r="B222" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="C222" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="D222" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="E222" s="6" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>5</v>
+      </c>
+      <c r="B223" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="C223" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="D223" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="E223" s="6"/>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>5</v>
+      </c>
+      <c r="B224" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="C224" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="D224" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="E224" s="6"/>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>5</v>
+      </c>
+      <c r="B225" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="C225" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="D225" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="E225" s="4" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>5</v>
+      </c>
+      <c r="B226" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="C226" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="D226" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="E226" s="5"/>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>5</v>
+      </c>
+      <c r="B227" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="C227" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="D227" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="E227" s="4" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" ht="42" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>5</v>
+      </c>
+      <c r="B228" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="C228" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="D228" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="E228" s="6" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" ht="42" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>5</v>
+      </c>
+      <c r="B229" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="C229" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="D229" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="E229" s="6" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>5</v>
+      </c>
+      <c r="B230" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="C230" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="D230" s="4" t="s">
+        <v>378</v>
+      </c>
+      <c r="E230" s="6"/>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>5</v>
+      </c>
+      <c r="B231" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="C231" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="D231" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="E231" s="6"/>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>5</v>
+      </c>
+      <c r="B232" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="C232" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="D232" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="E232" s="5"/>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>5</v>
+      </c>
+      <c r="B233" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="C233" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="D233" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="E233" s="6" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>5</v>
+      </c>
+      <c r="B234" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="C234" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="D234" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="E234" s="5" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" ht="28" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>5</v>
+      </c>
+      <c r="B235" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="C235" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="D235" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="E235" s="6" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
+        <v>5</v>
+      </c>
+      <c r="B236" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="C236" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="D236" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="E236" s="5"/>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>5</v>
+      </c>
+      <c r="B237" s="4" t="s">
+        <v>394</v>
+      </c>
+      <c r="C237" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="D237" s="4" t="s">
+        <v>395</v>
+      </c>
+      <c r="E237" s="6" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
+        <v>5</v>
+      </c>
+      <c r="B238" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="C238" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="D238" s="4" t="s">
+        <v>398</v>
+      </c>
+      <c r="E238" s="4" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" ht="154" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
+        <v>5</v>
+      </c>
+      <c r="B239" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="C239" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="D239" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="E239" s="6" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
+        <v>5</v>
+      </c>
+      <c r="B240" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="C240" s="4" t="s">
+        <v>404</v>
+      </c>
+      <c r="D240" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="E240" s="6"/>
+    </row>
+    <row r="241" spans="1:5" ht="168" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
+        <v>5</v>
+      </c>
+      <c r="B241" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="C241" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="D241" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="E241" s="6" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" ht="98" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
+        <v>5</v>
+      </c>
+      <c r="B242" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="C242" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="D242" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="E242" s="6" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
+        <v>5</v>
+      </c>
+      <c r="B243" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="C243" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="D243" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="E243" s="6" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" ht="28" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
+        <v>5</v>
+      </c>
+      <c r="B244" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="C244" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="D244" s="4" t="s">
+        <v>416</v>
+      </c>
+      <c r="E244" s="6" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" ht="28" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
+        <v>5</v>
+      </c>
+      <c r="B245" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="C245" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="D245" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="E245" s="6" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
+        <v>5</v>
+      </c>
+      <c r="B246" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="C246" s="4" t="s">
+        <v>422</v>
+      </c>
+      <c r="D246" s="4" t="s">
+        <v>423</v>
+      </c>
+      <c r="E246" s="5"/>
+    </row>
+    <row r="247" spans="1:5" ht="28" x14ac:dyDescent="0.25">
+      <c r="A247" t="s">
+        <v>5</v>
+      </c>
+      <c r="B247" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="C247" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="D247" s="4" t="s">
+        <v>425</v>
+      </c>
+      <c r="E247" s="6" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A248" t="s">
+        <v>5</v>
+      </c>
+      <c r="B248" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="C248" s="4" t="s">
+        <v>428</v>
+      </c>
+      <c r="D248" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="E248" s="5"/>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
+        <v>5</v>
+      </c>
+      <c r="B249" s="3" t="s">
+        <v>430</v>
+      </c>
+      <c r="C249" s="4" t="s">
+        <v>428</v>
+      </c>
+      <c r="D249" s="4" t="s">
+        <v>431</v>
+      </c>
+      <c r="E249" s="5"/>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
+        <v>5</v>
+      </c>
+      <c r="B250" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="C250" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="D250" s="4" t="s">
+        <v>433</v>
+      </c>
+      <c r="E250" s="4" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
+        <v>5</v>
+      </c>
+      <c r="B251" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="C251" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="D251" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="E251" s="4" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A252" t="s">
+        <v>5</v>
+      </c>
+      <c r="B252" s="3" t="s">
+        <v>437</v>
+      </c>
+      <c r="C252" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="D252" s="4" t="s">
+        <v>438</v>
+      </c>
+      <c r="E252" s="4" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" ht="28" x14ac:dyDescent="0.25">
+      <c r="A253" t="s">
+        <v>5</v>
+      </c>
+      <c r="B253" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="C253" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="D253" s="4" t="s">
+        <v>441</v>
+      </c>
+      <c r="E253" s="7" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" ht="42" x14ac:dyDescent="0.25">
+      <c r="A254" t="s">
+        <v>5</v>
+      </c>
+      <c r="B254" s="4" t="s">
+        <v>443</v>
+      </c>
+      <c r="C254" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="D254" s="4" t="s">
+        <v>444</v>
+      </c>
+      <c r="E254" s="6" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" ht="28" x14ac:dyDescent="0.25">
+      <c r="A255" t="s">
+        <v>5</v>
+      </c>
+      <c r="B255" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="C255" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="D255" s="4" t="s">
+        <v>447</v>
+      </c>
+      <c r="E255" s="6" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A256" t="s">
+        <v>5</v>
+      </c>
+      <c r="B256" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="C256" s="4" t="s">
+        <v>450</v>
+      </c>
+      <c r="D256" s="4" t="s">
+        <v>451</v>
+      </c>
+      <c r="E256" s="6"/>
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A257" t="s">
+        <v>5</v>
+      </c>
+      <c r="B257" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="C257" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="D257" s="4" t="s">
+        <v>453</v>
+      </c>
+      <c r="E257" s="5"/>
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A258" t="s">
+        <v>5</v>
+      </c>
+      <c r="B258" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="C258" s="4" t="s">
+        <v>454</v>
+      </c>
+      <c r="D258" s="4" t="s">
+        <v>455</v>
+      </c>
+      <c r="E258" s="5"/>
+    </row>
+    <row r="259" spans="1:5" ht="42" x14ac:dyDescent="0.25">
+      <c r="A259" t="s">
+        <v>5</v>
+      </c>
+      <c r="B259" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="C259" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="D259" s="4" t="s">
+        <v>457</v>
+      </c>
+      <c r="E259" s="6" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" ht="42" x14ac:dyDescent="0.25">
+      <c r="A260" t="s">
+        <v>5</v>
+      </c>
+      <c r="B260" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="C260" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="D260" s="4" t="s">
+        <v>460</v>
+      </c>
+      <c r="E260" s="6" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" ht="42" x14ac:dyDescent="0.25">
+      <c r="A261" t="s">
+        <v>5</v>
+      </c>
+      <c r="B261" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="C261" s="4" t="s">
+        <v>463</v>
+      </c>
+      <c r="D261" s="4" t="s">
+        <v>464</v>
+      </c>
+      <c r="E261" s="6" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A262" t="s">
+        <v>5</v>
+      </c>
+      <c r="B262" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="C262" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="D262" s="4" t="s">
+        <v>467</v>
+      </c>
+      <c r="E262" s="6" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" ht="42" x14ac:dyDescent="0.25">
+      <c r="A263" t="s">
+        <v>5</v>
+      </c>
+      <c r="B263" s="3" t="s">
+        <v>469</v>
+      </c>
+      <c r="C263" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="D263" s="4" t="s">
+        <v>470</v>
+      </c>
+      <c r="E263" s="6" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" ht="56" x14ac:dyDescent="0.25">
+      <c r="A264" t="s">
+        <v>5</v>
+      </c>
+      <c r="B264" s="3" t="s">
+        <v>472</v>
+      </c>
+      <c r="C264" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="D264" s="4" t="s">
+        <v>473</v>
+      </c>
+      <c r="E264" s="6" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" ht="56" x14ac:dyDescent="0.25">
+      <c r="A265" t="s">
+        <v>5</v>
+      </c>
+      <c r="B265" s="3" t="s">
+        <v>475</v>
+      </c>
+      <c r="C265" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="D265" s="6" t="s">
+        <v>476</v>
+      </c>
+      <c r="E265" s="6" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" ht="56" x14ac:dyDescent="0.25">
+      <c r="A266" t="s">
+        <v>5</v>
+      </c>
+      <c r="B266" s="3" t="s">
+        <v>478</v>
+      </c>
+      <c r="C266" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="D266" s="4" t="s">
+        <v>479</v>
+      </c>
+      <c r="E266" s="6" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" ht="42" x14ac:dyDescent="0.25">
+      <c r="A267" t="s">
+        <v>5</v>
+      </c>
+      <c r="B267" s="3" t="s">
+        <v>481</v>
+      </c>
+      <c r="C267" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="D267" s="4" t="s">
+        <v>482</v>
+      </c>
+      <c r="E267" s="6" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A268" t="s">
+        <v>5</v>
+      </c>
+      <c r="B268" s="3" t="s">
+        <v>484</v>
+      </c>
+      <c r="C268" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="D268" s="4" t="s">
+        <v>485</v>
+      </c>
+      <c r="E268" s="5"/>
+    </row>
+    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A269" t="s">
+        <v>5</v>
+      </c>
+      <c r="B269" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="C269" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="D269" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="E269" s="6" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" ht="56" x14ac:dyDescent="0.25">
+      <c r="A270" t="s">
+        <v>5</v>
+      </c>
+      <c r="B270" s="3" t="s">
+        <v>489</v>
+      </c>
+      <c r="C270" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="D270" s="4" t="s">
+        <v>490</v>
+      </c>
+      <c r="E270" s="6" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A271" t="s">
+        <v>5</v>
+      </c>
+      <c r="B271" s="3" t="s">
+        <v>492</v>
+      </c>
+      <c r="C271" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="D271" s="4" t="s">
+        <v>493</v>
+      </c>
+      <c r="E271" s="6" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A272" t="s">
+        <v>5</v>
+      </c>
+      <c r="B272" s="3" t="s">
+        <v>495</v>
+      </c>
+      <c r="C272" s="4" t="s">
+        <v>450</v>
+      </c>
+      <c r="D272" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="E272" s="6" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A273" t="s">
+        <v>5</v>
+      </c>
+      <c r="B273" s="3" t="s">
+        <v>495</v>
+      </c>
+      <c r="C273" s="4" t="s">
+        <v>498</v>
+      </c>
+      <c r="D273" s="4" t="s">
+        <v>499</v>
+      </c>
+      <c r="E273" s="6" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A274" t="s">
+        <v>5</v>
+      </c>
+      <c r="B274" s="3" t="s">
+        <v>495</v>
+      </c>
+      <c r="C274" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="D274" s="4" t="s">
+        <v>501</v>
+      </c>
+      <c r="E274" s="6" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A275" t="s">
+        <v>5</v>
+      </c>
+      <c r="B275" s="3" t="s">
+        <v>492</v>
+      </c>
+      <c r="C275" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="D275" s="4" t="s">
+        <v>503</v>
+      </c>
+      <c r="E275" s="6" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A276" t="s">
+        <v>5</v>
+      </c>
+      <c r="B276" s="4" t="s">
+        <v>504</v>
+      </c>
+      <c r="C276" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="D276" s="4" t="s">
+        <v>505</v>
+      </c>
+      <c r="E276" s="5"/>
+    </row>
+    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A277" t="s">
+        <v>5</v>
+      </c>
+      <c r="B277" s="3" t="s">
+        <v>506</v>
+      </c>
+      <c r="C277" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="D277" s="4" t="s">
+        <v>507</v>
+      </c>
+      <c r="E277" s="5"/>
+    </row>
+    <row r="278" spans="1:5" ht="42" x14ac:dyDescent="0.25">
+      <c r="A278" t="s">
+        <v>5</v>
+      </c>
+      <c r="B278" s="3" t="s">
+        <v>508</v>
+      </c>
+      <c r="C278" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="D278" s="4" t="s">
+        <v>509</v>
+      </c>
+      <c r="E278" s="6" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5" ht="42" x14ac:dyDescent="0.25">
+      <c r="A279" t="s">
+        <v>5</v>
+      </c>
+      <c r="B279" s="3" t="s">
+        <v>511</v>
+      </c>
+      <c r="C279" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="D279" s="4" t="s">
+        <v>512</v>
+      </c>
+      <c r="E279" s="6" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5" ht="126" x14ac:dyDescent="0.25">
+      <c r="A280" t="s">
+        <v>5</v>
+      </c>
+      <c r="B280" s="3" t="s">
+        <v>514</v>
+      </c>
+      <c r="C280" s="4" t="s">
+        <v>422</v>
+      </c>
+      <c r="D280" s="4" t="s">
+        <v>515</v>
+      </c>
+      <c r="E280" s="6" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A281" t="s">
+        <v>5</v>
+      </c>
+      <c r="B281" s="3" t="s">
+        <v>517</v>
+      </c>
+      <c r="C281" s="4" t="s">
+        <v>463</v>
+      </c>
+      <c r="D281" s="4" t="s">
+        <v>518</v>
+      </c>
+      <c r="E281" s="6" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5" ht="182" x14ac:dyDescent="0.25">
+      <c r="A282" t="s">
+        <v>5</v>
+      </c>
+      <c r="B282" s="4" t="s">
+        <v>520</v>
+      </c>
+      <c r="C282" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="D282" s="4" t="s">
+        <v>521</v>
+      </c>
+      <c r="E282" s="6" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5" ht="42" x14ac:dyDescent="0.25">
+      <c r="A283" t="s">
+        <v>5</v>
+      </c>
+      <c r="B283" s="3" t="s">
+        <v>523</v>
+      </c>
+      <c r="C283" s="4" t="s">
+        <v>450</v>
+      </c>
+      <c r="D283" s="4" t="s">
+        <v>524</v>
+      </c>
+      <c r="E283" s="6" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A284" t="s">
+        <v>5</v>
+      </c>
+      <c r="B284" s="3" t="s">
+        <v>526</v>
+      </c>
+      <c r="C284" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="D284" s="4" t="s">
+        <v>527</v>
+      </c>
+      <c r="E284" s="6"/>
+    </row>
+    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A285" t="s">
+        <v>5</v>
+      </c>
+      <c r="B285" s="3" t="s">
+        <v>526</v>
+      </c>
+      <c r="C285" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="D285" s="4" t="s">
+        <v>528</v>
+      </c>
+      <c r="E285" s="6"/>
+    </row>
+    <row r="286" spans="1:5" ht="224" x14ac:dyDescent="0.25">
+      <c r="A286" t="s">
+        <v>5</v>
+      </c>
+      <c r="B286" s="3" t="s">
+        <v>529</v>
+      </c>
+      <c r="C286" s="4" t="s">
+        <v>428</v>
+      </c>
+      <c r="D286" s="4" t="s">
+        <v>530</v>
+      </c>
+      <c r="E286" s="6" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A287" t="s">
+        <v>5</v>
+      </c>
+      <c r="B287" s="3" t="s">
+        <v>532</v>
+      </c>
+      <c r="C287" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="D287" s="4" t="s">
+        <v>533</v>
+      </c>
+      <c r="E287" s="6" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5" ht="84" x14ac:dyDescent="0.25">
+      <c r="A288" t="s">
+        <v>5</v>
+      </c>
+      <c r="B288" s="3" t="s">
+        <v>535</v>
+      </c>
+      <c r="C288" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="D288" s="4" t="s">
+        <v>536</v>
+      </c>
+      <c r="E288" s="6" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5" ht="84" x14ac:dyDescent="0.25">
+      <c r="A289" t="s">
+        <v>5</v>
+      </c>
+      <c r="B289" s="3" t="s">
+        <v>538</v>
+      </c>
+      <c r="C289" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="D289" s="4" t="s">
+        <v>539</v>
+      </c>
+      <c r="E289" s="6" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5" ht="84" x14ac:dyDescent="0.25">
+      <c r="A290" t="s">
+        <v>5</v>
+      </c>
+      <c r="B290" s="3" t="s">
+        <v>535</v>
+      </c>
+      <c r="C290" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="D290" s="4" t="s">
+        <v>541</v>
+      </c>
+      <c r="E290" s="6" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A291" t="s">
+        <v>5</v>
+      </c>
+      <c r="B291" s="4" t="s">
+        <v>542</v>
+      </c>
+      <c r="C291" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="D291" s="4" t="s">
+        <v>543</v>
+      </c>
+      <c r="E291" s="6" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5" ht="28" x14ac:dyDescent="0.25">
+      <c r="A292" t="s">
+        <v>5</v>
+      </c>
+      <c r="B292" s="3" t="s">
+        <v>545</v>
+      </c>
+      <c r="C292" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="D292" s="4" t="s">
+        <v>546</v>
+      </c>
+      <c r="E292" s="6" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A293" t="s">
+        <v>5</v>
+      </c>
+      <c r="B293" s="3" t="s">
+        <v>548</v>
+      </c>
+      <c r="C293" s="4" t="s">
+        <v>450</v>
+      </c>
+      <c r="D293" s="4" t="s">
+        <v>549</v>
+      </c>
+      <c r="E293" s="6"/>
+    </row>
+    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A294" t="s">
+        <v>5</v>
+      </c>
+      <c r="B294" s="3" t="s">
+        <v>548</v>
+      </c>
+      <c r="C294" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="D294" s="4" t="s">
+        <v>550</v>
+      </c>
+      <c r="E294" s="6"/>
+    </row>
+    <row r="295" spans="1:5" ht="140" x14ac:dyDescent="0.25">
+      <c r="A295" t="s">
+        <v>5</v>
+      </c>
+      <c r="B295" s="3" t="s">
+        <v>551</v>
+      </c>
+      <c r="C295" s="4" t="s">
+        <v>463</v>
+      </c>
+      <c r="D295" s="4" t="s">
+        <v>552</v>
+      </c>
+      <c r="E295" s="6" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5" ht="168" x14ac:dyDescent="0.25">
+      <c r="A296" t="s">
+        <v>5</v>
+      </c>
+      <c r="B296" s="3" t="s">
+        <v>554</v>
+      </c>
+      <c r="C296" s="4" t="s">
+        <v>422</v>
+      </c>
+      <c r="D296" s="4" t="s">
+        <v>555</v>
+      </c>
+      <c r="E296" s="6" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5" ht="168" x14ac:dyDescent="0.25">
+      <c r="A297" t="s">
+        <v>5</v>
+      </c>
+      <c r="B297" s="3" t="s">
+        <v>554</v>
+      </c>
+      <c r="C297" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="D297" s="4" t="s">
+        <v>557</v>
+      </c>
+      <c r="E297" s="6" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5" ht="168" x14ac:dyDescent="0.25">
+      <c r="A298" t="s">
+        <v>5</v>
+      </c>
+      <c r="B298" s="3" t="s">
+        <v>554</v>
+      </c>
+      <c r="C298" s="4" t="s">
+        <v>454</v>
+      </c>
+      <c r="D298" s="4" t="s">
+        <v>559</v>
+      </c>
+      <c r="E298" s="6" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5" ht="28" x14ac:dyDescent="0.25">
+      <c r="A299" t="s">
+        <v>5</v>
+      </c>
+      <c r="B299" s="3" t="s">
+        <v>561</v>
+      </c>
+      <c r="C299" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="D299" s="4" t="s">
+        <v>562</v>
+      </c>
+      <c r="E299" s="6" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A300" t="s">
+        <v>5</v>
+      </c>
+      <c r="B300" s="3" t="s">
+        <v>564</v>
+      </c>
+      <c r="C300" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="D300" s="4" t="s">
+        <v>565</v>
+      </c>
+      <c r="E300" s="5"/>
+    </row>
+    <row r="301" spans="1:5" ht="28" x14ac:dyDescent="0.25">
+      <c r="A301" t="s">
+        <v>5</v>
+      </c>
+      <c r="B301" s="3" t="s">
+        <v>566</v>
+      </c>
+      <c r="C301" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="D301" s="4" t="s">
+        <v>567</v>
+      </c>
+      <c r="E301" s="6" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5" ht="28" x14ac:dyDescent="0.25">
+      <c r="A302" t="s">
+        <v>5</v>
+      </c>
+      <c r="B302" s="3" t="s">
+        <v>569</v>
+      </c>
+      <c r="C302" s="4" t="s">
+        <v>463</v>
+      </c>
+      <c r="D302" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="E302" s="6" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5" ht="28" x14ac:dyDescent="0.25">
+      <c r="A303" t="s">
+        <v>5</v>
+      </c>
+      <c r="B303" s="3" t="s">
+        <v>572</v>
+      </c>
+      <c r="C303" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="D303" s="4" t="s">
+        <v>573</v>
+      </c>
+      <c r="E303" s="6" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5" ht="112" x14ac:dyDescent="0.25">
+      <c r="A304" t="s">
+        <v>5</v>
+      </c>
+      <c r="B304" s="3" t="s">
+        <v>574</v>
+      </c>
+      <c r="C304" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="D304" s="4" t="s">
+        <v>575</v>
+      </c>
+      <c r="E304" s="6" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5" ht="126" x14ac:dyDescent="0.25">
+      <c r="A305" t="s">
+        <v>5</v>
+      </c>
+      <c r="B305" s="3" t="s">
+        <v>577</v>
+      </c>
+      <c r="C305" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="D305" s="4" t="s">
+        <v>578</v>
+      </c>
+      <c r="E305" s="6" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5" ht="126" x14ac:dyDescent="0.25">
+      <c r="A306" t="s">
+        <v>5</v>
+      </c>
+      <c r="B306" s="3" t="s">
+        <v>580</v>
+      </c>
+      <c r="C306" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="D306" s="4" t="s">
+        <v>581</v>
+      </c>
+      <c r="E306" s="6" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5" ht="126" x14ac:dyDescent="0.25">
+      <c r="A307" t="s">
+        <v>5</v>
+      </c>
+      <c r="B307" s="3" t="s">
+        <v>582</v>
+      </c>
+      <c r="C307" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="D307" s="4" t="s">
+        <v>583</v>
+      </c>
+      <c r="E307" s="6" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5" ht="126" x14ac:dyDescent="0.25">
+      <c r="A308" t="s">
+        <v>5</v>
+      </c>
+      <c r="B308" s="3" t="s">
+        <v>585</v>
+      </c>
+      <c r="C308" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="D308" s="4" t="s">
+        <v>586</v>
+      </c>
+      <c r="E308" s="6" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5" ht="196" x14ac:dyDescent="0.25">
+      <c r="A309" t="s">
+        <v>5</v>
+      </c>
+      <c r="B309" s="3" t="s">
+        <v>588</v>
+      </c>
+      <c r="C309" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="D309" s="4" t="s">
+        <v>589</v>
+      </c>
+      <c r="E309" s="6" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5" ht="196" x14ac:dyDescent="0.25">
+      <c r="A310" t="s">
+        <v>5</v>
+      </c>
+      <c r="B310" s="3" t="s">
+        <v>591</v>
+      </c>
+      <c r="C310" s="4" t="s">
+        <v>454</v>
+      </c>
+      <c r="D310" s="4" t="s">
+        <v>592</v>
+      </c>
+      <c r="E310" s="6" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5" ht="196" x14ac:dyDescent="0.25">
+      <c r="A311" t="s">
+        <v>5</v>
+      </c>
+      <c r="B311" s="3" t="s">
+        <v>594</v>
+      </c>
+      <c r="C311" s="4" t="s">
+        <v>450</v>
+      </c>
+      <c r="D311" s="4" t="s">
+        <v>595</v>
+      </c>
+      <c r="E311" s="6" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A312" t="s">
+        <v>5</v>
+      </c>
+      <c r="B312" s="4" t="s">
+        <v>596</v>
+      </c>
+      <c r="C312" s="4" t="s">
+        <v>428</v>
+      </c>
+      <c r="D312" s="4" t="s">
+        <v>597</v>
+      </c>
+      <c r="E312" s="5"/>
+    </row>
+    <row r="313" spans="1:5" ht="56" x14ac:dyDescent="0.25">
+      <c r="A313" t="s">
+        <v>5</v>
+      </c>
+      <c r="B313" s="3" t="s">
+        <v>598</v>
+      </c>
+      <c r="C313" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="D313" s="4" t="s">
+        <v>599</v>
+      </c>
+      <c r="E313" s="6" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5" ht="28" x14ac:dyDescent="0.25">
+      <c r="A314" t="s">
+        <v>5</v>
+      </c>
+      <c r="B314" s="3" t="s">
+        <v>601</v>
+      </c>
+      <c r="C314" s="4" t="s">
+        <v>463</v>
+      </c>
+      <c r="D314" s="4" t="s">
+        <v>602</v>
+      </c>
+      <c r="E314" s="6" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5" ht="28" x14ac:dyDescent="0.25">
+      <c r="A315" t="s">
+        <v>5</v>
+      </c>
+      <c r="B315" s="3" t="s">
+        <v>604</v>
+      </c>
+      <c r="C315" s="4" t="s">
+        <v>428</v>
+      </c>
+      <c r="D315" s="4" t="s">
+        <v>605</v>
+      </c>
+      <c r="E315" s="6" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5" ht="28" x14ac:dyDescent="0.25">
+      <c r="A316" t="s">
+        <v>5</v>
+      </c>
+      <c r="B316" s="3" t="s">
+        <v>601</v>
+      </c>
+      <c r="C316" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="D316" s="4" t="s">
+        <v>606</v>
+      </c>
+      <c r="E316" s="6" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="317" spans="1:5" ht="140" x14ac:dyDescent="0.25">
+      <c r="A317" t="s">
+        <v>5</v>
+      </c>
+      <c r="B317" s="3" t="s">
+        <v>607</v>
+      </c>
+      <c r="C317" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="D317" s="4" t="s">
+        <v>608</v>
+      </c>
+      <c r="E317" s="6" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="318" spans="1:5" ht="196" x14ac:dyDescent="0.25">
+      <c r="A318" t="s">
+        <v>5</v>
+      </c>
+      <c r="B318" s="3" t="s">
+        <v>610</v>
+      </c>
+      <c r="C318" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="D318" s="4" t="s">
+        <v>611</v>
+      </c>
+      <c r="E318" s="6" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5" ht="28" x14ac:dyDescent="0.25">
+      <c r="A319" t="s">
+        <v>5</v>
+      </c>
+      <c r="B319" s="3" t="s">
+        <v>613</v>
+      </c>
+      <c r="C319" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="D319" s="4" t="s">
+        <v>614</v>
+      </c>
+      <c r="E319" s="6" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="320" spans="1:5" ht="140" x14ac:dyDescent="0.25">
+      <c r="A320" t="s">
+        <v>5</v>
+      </c>
+      <c r="B320" s="3" t="s">
+        <v>607</v>
+      </c>
+      <c r="C320" s="4" t="s">
+        <v>463</v>
+      </c>
+      <c r="D320" s="4" t="s">
+        <v>616</v>
+      </c>
+      <c r="E320" s="6" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5" ht="196" x14ac:dyDescent="0.25">
+      <c r="A321" t="s">
+        <v>5</v>
+      </c>
+      <c r="B321" s="3" t="s">
+        <v>618</v>
+      </c>
+      <c r="C321" s="4" t="s">
+        <v>463</v>
+      </c>
+      <c r="D321" s="4" t="s">
+        <v>619</v>
+      </c>
+      <c r="E321" s="6" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="322" spans="1:5" ht="28" x14ac:dyDescent="0.25">
+      <c r="A322" t="s">
+        <v>5</v>
+      </c>
+      <c r="B322" s="3" t="s">
+        <v>621</v>
+      </c>
+      <c r="C322" s="4" t="s">
+        <v>463</v>
+      </c>
+      <c r="D322" s="4" t="s">
+        <v>622</v>
+      </c>
+      <c r="E322" s="6" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="323" spans="1:5" ht="140" x14ac:dyDescent="0.25">
+      <c r="A323" t="s">
+        <v>5</v>
+      </c>
+      <c r="B323" s="3" t="s">
+        <v>624</v>
+      </c>
+      <c r="C323" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="D323" s="4" t="s">
+        <v>625</v>
+      </c>
+      <c r="E323" s="6" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="324" spans="1:5" ht="196" x14ac:dyDescent="0.25">
+      <c r="A324" t="s">
+        <v>5</v>
+      </c>
+      <c r="B324" s="3" t="s">
+        <v>610</v>
+      </c>
+      <c r="C324" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="D324" s="4" t="s">
+        <v>626</v>
+      </c>
+      <c r="E324" s="6" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="325" spans="1:5" ht="28" x14ac:dyDescent="0.25">
+      <c r="A325" t="s">
+        <v>5</v>
+      </c>
+      <c r="B325" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C325" s="4" t="s">
+        <v>628</v>
+      </c>
+      <c r="D325" s="4" t="s">
+        <v>629</v>
+      </c>
+      <c r="E325" s="6" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="326" spans="1:5" ht="70" x14ac:dyDescent="0.25">
+      <c r="A326" t="s">
+        <v>5</v>
+      </c>
+      <c r="B326" s="3" t="s">
+        <v>631</v>
+      </c>
+      <c r="C326" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="D326" s="4" t="s">
+        <v>632</v>
+      </c>
+      <c r="E326" s="6" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="327" spans="1:5" ht="28" x14ac:dyDescent="0.25">
+      <c r="A327" t="s">
+        <v>5</v>
+      </c>
+      <c r="B327" s="4" t="s">
+        <v>634</v>
+      </c>
+      <c r="C327" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="D327" s="4" t="s">
+        <v>635</v>
+      </c>
+      <c r="E327" s="6" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="328" spans="1:5" ht="28" x14ac:dyDescent="0.25">
+      <c r="A328" t="s">
+        <v>5</v>
+      </c>
+      <c r="B328" s="4" t="s">
+        <v>637</v>
+      </c>
+      <c r="C328" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="D328" s="4" t="s">
+        <v>638</v>
+      </c>
+      <c r="E328" s="6" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="329" spans="1:5" ht="28" x14ac:dyDescent="0.25">
+      <c r="A329" t="s">
+        <v>5</v>
+      </c>
+      <c r="B329" s="4" t="s">
+        <v>637</v>
+      </c>
+      <c r="C329" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="D329" s="4" t="s">
+        <v>640</v>
+      </c>
+      <c r="E329" s="6" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="330" spans="1:5" ht="28" x14ac:dyDescent="0.25">
+      <c r="A330" t="s">
+        <v>5</v>
+      </c>
+      <c r="B330" s="3" t="s">
+        <v>641</v>
+      </c>
+      <c r="C330" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="D330" s="4" t="s">
+        <v>642</v>
+      </c>
+      <c r="E330" s="6" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="331" spans="1:5" ht="210" x14ac:dyDescent="0.25">
+      <c r="A331" t="s">
+        <v>5</v>
+      </c>
+      <c r="B331" s="3" t="s">
+        <v>644</v>
+      </c>
+      <c r="C331" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="D331" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="E331" s="6" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="332" spans="1:5" ht="42" x14ac:dyDescent="0.25">
+      <c r="A332" t="s">
+        <v>5</v>
+      </c>
+      <c r="B332" s="3" t="s">
+        <v>647</v>
+      </c>
+      <c r="C332" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="D332" s="4" t="s">
+        <v>648</v>
+      </c>
+      <c r="E332" s="6" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="333" spans="1:5" ht="168" x14ac:dyDescent="0.25">
+      <c r="A333" t="s">
+        <v>5</v>
+      </c>
+      <c r="B333" s="3" t="s">
+        <v>650</v>
+      </c>
+      <c r="C333" s="4" t="s">
+        <v>651</v>
+      </c>
+      <c r="D333" s="4" t="s">
+        <v>652</v>
+      </c>
+      <c r="E333" s="6" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A334" t="s">
+        <v>5</v>
+      </c>
+      <c r="B334" s="3" t="s">
+        <v>654</v>
+      </c>
+      <c r="C334" s="4" t="s">
+        <v>651</v>
+      </c>
+      <c r="D334" s="4" t="s">
+        <v>655</v>
+      </c>
+      <c r="E334" s="5"/>
+    </row>
+    <row r="335" spans="1:5" ht="112" x14ac:dyDescent="0.25">
+      <c r="A335" t="s">
+        <v>5</v>
+      </c>
+      <c r="B335" s="4" t="s">
+        <v>656</v>
+      </c>
+      <c r="C335" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="D335" s="4" t="s">
+        <v>657</v>
+      </c>
+      <c r="E335" s="6" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="336" spans="1:5" ht="56" x14ac:dyDescent="0.25">
+      <c r="A336" t="s">
+        <v>5</v>
+      </c>
+      <c r="B336" s="3" t="s">
+        <v>659</v>
+      </c>
+      <c r="C336" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="D336" s="4" t="s">
+        <v>660</v>
+      </c>
+      <c r="E336" s="6" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="337" spans="1:5" ht="56" x14ac:dyDescent="0.25">
+      <c r="A337" t="s">
+        <v>5</v>
+      </c>
+      <c r="B337" s="3" t="s">
+        <v>662</v>
+      </c>
+      <c r="C337" s="4" t="s">
+        <v>463</v>
+      </c>
+      <c r="D337" s="8" t="s">
+        <v>663</v>
+      </c>
+      <c r="E337" s="6" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="338" spans="1:5" ht="56" x14ac:dyDescent="0.25">
+      <c r="A338" t="s">
+        <v>5</v>
+      </c>
+      <c r="B338" s="3" t="s">
+        <v>662</v>
+      </c>
+      <c r="C338" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="D338" s="8" t="s">
+        <v>665</v>
+      </c>
+      <c r="E338" s="6" t="s">
+        <v>666</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>